--- a/optimizer_testing/Week3_Proj_DK.xlsx
+++ b/optimizer_testing/Week3_Proj_DK.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmoore/Desktop/optimizer_v1/optimizer_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87550DA0-372F-3F45-9E2A-808C0C783D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E80097-71A4-684B-B822-6938DAE0038D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15020" xr2:uid="{B5B97B94-2415-B545-A07B-C20F65F5F8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4121,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675B12F8-F255-6D48-99FD-51D00EBD93F4}">
   <dimension ref="A1:O590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4206,10 +4206,10 @@
         <v>23.47</v>
       </c>
       <c r="K2">
-        <v>25.256666666666668</v>
+        <v>23.143333333333331</v>
       </c>
       <c r="L2">
-        <v>13.306666666666667</v>
+        <v>13.106666666666664</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>TRIM(LEFT(G2,FIND("@",G2)-1))</f>
@@ -4253,13 +4253,13 @@
         <v>31.25</v>
       </c>
       <c r="J3">
-        <v>22.016666666666666</v>
+        <v>21.8</v>
       </c>
       <c r="K3">
-        <v>16.919999999999998</v>
+        <v>14.86</v>
       </c>
       <c r="L3">
-        <v>13.173333333333332</v>
+        <v>13.219999999999999</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" ref="M3:M66" si="0">TRIM(LEFT(G3,FIND("@",G3)-1))</f>
@@ -4303,13 +4303,13 @@
         <v>29.4</v>
       </c>
       <c r="J4">
-        <v>4.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.9666666666666668</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4353,13 +4353,13 @@
         <v>22.87</v>
       </c>
       <c r="J5">
-        <v>25.409999999999997</v>
+        <v>25.649999999999995</v>
       </c>
       <c r="K5">
-        <v>9.82</v>
+        <v>11.48</v>
       </c>
       <c r="L5">
-        <v>9.9266666666666659</v>
+        <v>10.106666666666666</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4403,13 +4403,13 @@
         <v>18.350000000000001</v>
       </c>
       <c r="J6">
-        <v>21.713333333333331</v>
+        <v>21.363333333333333</v>
       </c>
       <c r="K6">
-        <v>4.2833333333333332</v>
+        <v>3.7833333333333332</v>
       </c>
       <c r="L6">
-        <v>9.6766666666666659</v>
+        <v>9.5</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4453,13 +4453,13 @@
         <v>21.4</v>
       </c>
       <c r="J7">
-        <v>17.46</v>
+        <v>16.823333333333334</v>
       </c>
       <c r="K7">
-        <v>7.7433333333333323</v>
+        <v>6.68</v>
       </c>
       <c r="L7">
-        <v>12.003333333333334</v>
+        <v>11.769999999999998</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4503,13 +4503,13 @@
         <v>21.05</v>
       </c>
       <c r="J8">
-        <v>20.623333333333335</v>
+        <v>20.86</v>
       </c>
       <c r="K8">
-        <v>19.203333333333333</v>
+        <v>21.213333333333331</v>
       </c>
       <c r="L8">
-        <v>10.723333333333331</v>
+        <v>10.749999999999998</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4603,13 +4603,13 @@
         <v>18.649999999999999</v>
       </c>
       <c r="J10">
-        <v>17.573333333333331</v>
+        <v>17.456666666666663</v>
       </c>
       <c r="K10">
-        <v>7.8333333333333339</v>
+        <v>7.2466666666666661</v>
       </c>
       <c r="L10">
-        <v>11.216666666666665</v>
+        <v>11.516666666666666</v>
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4653,13 +4653,13 @@
         <v>22.25</v>
       </c>
       <c r="J11">
-        <v>18.463333333333331</v>
+        <v>18.59</v>
       </c>
       <c r="K11">
-        <v>10.793333333333333</v>
+        <v>10.893333333333333</v>
       </c>
       <c r="L11">
-        <v>10.153333333333332</v>
+        <v>10.36</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4703,13 +4703,13 @@
         <v>15.72</v>
       </c>
       <c r="J12">
-        <v>22.159999999999997</v>
+        <v>22.066666666666666</v>
       </c>
       <c r="K12">
-        <v>5.7966666666666669</v>
+        <v>6.1266666666666669</v>
       </c>
       <c r="L12">
-        <v>9.716666666666665</v>
+        <v>9.7966666666666669</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4753,13 +4753,13 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>18.436666666666667</v>
+        <v>18.406666666666666</v>
       </c>
       <c r="K13">
-        <v>11.516666666666666</v>
+        <v>12.273333333333333</v>
       </c>
       <c r="L13">
-        <v>12.379999999999999</v>
+        <v>12.396666666666665</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4803,13 +4803,13 @@
         <v>24.15</v>
       </c>
       <c r="J14">
-        <v>19.27</v>
+        <v>19.523333333333333</v>
       </c>
       <c r="K14">
-        <v>19.739999999999998</v>
+        <v>21.213333333333331</v>
       </c>
       <c r="L14">
-        <v>12.073333333333334</v>
+        <v>11.853333333333332</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4853,13 +4853,13 @@
         <v>12.1</v>
       </c>
       <c r="J15">
-        <v>14.58</v>
+        <v>14.426666666666666</v>
       </c>
       <c r="K15">
-        <v>1.8566666666666667</v>
+        <v>2.293333333333333</v>
       </c>
       <c r="L15">
-        <v>11.026666666666666</v>
+        <v>11.233333333333333</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4903,13 +4903,13 @@
         <v>23.06</v>
       </c>
       <c r="J16">
-        <v>21.799999999999997</v>
+        <v>21.83</v>
       </c>
       <c r="K16">
-        <v>9.51</v>
+        <v>9.706666666666667</v>
       </c>
       <c r="L16">
-        <v>9.15</v>
+        <v>9.0833333333333321</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4953,13 +4953,13 @@
         <v>16.2</v>
       </c>
       <c r="J17">
-        <v>15.879999999999999</v>
+        <v>15.473333333333333</v>
       </c>
       <c r="K17">
-        <v>5.0999999999999996</v>
+        <v>4.0166666666666657</v>
       </c>
       <c r="L17">
-        <v>9.2733333333333317</v>
+        <v>9.1933333333333316</v>
       </c>
       <c r="M17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5003,13 +5003,13 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J18">
-        <v>16.689999999999998</v>
+        <v>16.643333333333334</v>
       </c>
       <c r="K18">
-        <v>10.06</v>
+        <v>14.246666666666666</v>
       </c>
       <c r="L18">
-        <v>12.423333333333332</v>
+        <v>12.309999999999999</v>
       </c>
       <c r="M18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5053,13 +5053,13 @@
         <v>12.6</v>
       </c>
       <c r="J19">
-        <v>18.72</v>
+        <v>19.176666666666666</v>
       </c>
       <c r="K19">
-        <v>14.98</v>
+        <v>15.573333333333332</v>
       </c>
       <c r="L19">
-        <v>12.66333333333333</v>
+        <v>12.849999999999998</v>
       </c>
       <c r="M19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5103,13 +5103,13 @@
         <v>16.64</v>
       </c>
       <c r="J20">
-        <v>18.729999999999997</v>
+        <v>19.11</v>
       </c>
       <c r="K20">
-        <v>1.9533333333333331</v>
+        <v>1.7466666666666666</v>
       </c>
       <c r="L20">
-        <v>9.0566666666666649</v>
+        <v>9.0266666666666655</v>
       </c>
       <c r="M20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5153,13 +5153,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="J21">
-        <v>15.753333333333332</v>
+        <v>15.596666666666666</v>
       </c>
       <c r="K21">
-        <v>11.093333333333332</v>
+        <v>7.9733333333333327</v>
       </c>
       <c r="L21">
-        <v>11.473333333333333</v>
+        <v>11.376666666666665</v>
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5203,13 +5203,13 @@
         <v>22.7</v>
       </c>
       <c r="J22">
-        <v>21.099999999999998</v>
+        <v>20.606666666666666</v>
       </c>
       <c r="K22">
-        <v>6.18</v>
+        <v>5.5699999999999994</v>
       </c>
       <c r="L22">
-        <v>8.9933333333333323</v>
+        <v>9</v>
       </c>
       <c r="M22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5253,13 +5253,13 @@
         <v>13.8</v>
       </c>
       <c r="J23">
-        <v>17.983333333333334</v>
+        <v>17.943333333333335</v>
       </c>
       <c r="K23">
-        <v>15.856666666666666</v>
+        <v>19.343333333333334</v>
       </c>
       <c r="L23">
-        <v>10.093333333333332</v>
+        <v>10.27</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5303,13 +5303,13 @@
         <v>27.51</v>
       </c>
       <c r="J24">
-        <v>23.256666666666664</v>
+        <v>23.13</v>
       </c>
       <c r="K24">
-        <v>15.779999999999998</v>
+        <v>16.956666666666667</v>
       </c>
       <c r="L24">
-        <v>9.3633333333333333</v>
+        <v>9.48</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5353,13 +5353,13 @@
         <v>13.6</v>
       </c>
       <c r="J25">
-        <v>14.143333333333333</v>
+        <v>14.403333333333332</v>
       </c>
       <c r="K25">
-        <v>6.7433333333333332</v>
+        <v>5.24</v>
       </c>
       <c r="L25">
-        <v>10.713333333333331</v>
+        <v>10.98</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5403,13 +5403,13 @@
         <v>26.7</v>
       </c>
       <c r="J26">
-        <v>9.4466666666666654</v>
+        <v>9.33</v>
       </c>
       <c r="K26">
-        <v>2.9433333333333334</v>
+        <v>1.9133333333333336</v>
       </c>
       <c r="L26">
-        <v>4.97</v>
+        <v>5.0566666666666666</v>
       </c>
       <c r="M26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5453,13 +5453,13 @@
         <v>14.49</v>
       </c>
       <c r="J27">
-        <v>20.009999999999998</v>
+        <v>20.056666666666665</v>
       </c>
       <c r="K27">
-        <v>6.4466666666666672</v>
+        <v>7.3466666666666658</v>
       </c>
       <c r="L27">
-        <v>8.9933333333333323</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5503,13 +5503,13 @@
         <v>15.35</v>
       </c>
       <c r="J28">
-        <v>12.639999999999999</v>
+        <v>12.516666666666666</v>
       </c>
       <c r="K28">
-        <v>2.1433333333333335</v>
+        <v>1.2633333333333332</v>
       </c>
       <c r="L28">
-        <v>10.073333333333332</v>
+        <v>10.053333333333333</v>
       </c>
       <c r="M28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5603,13 +5603,13 @@
         <v>14.95</v>
       </c>
       <c r="J30">
-        <v>15.5</v>
+        <v>15.486666666666665</v>
       </c>
       <c r="K30">
-        <v>10.693333333333333</v>
+        <v>7.5366666666666662</v>
       </c>
       <c r="L30">
-        <v>8.7199999999999989</v>
+        <v>8.75</v>
       </c>
       <c r="M30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5653,13 +5653,13 @@
         <v>10.3</v>
       </c>
       <c r="J31">
-        <v>15.87</v>
+        <v>16.07</v>
       </c>
       <c r="K31">
-        <v>11.943333333333332</v>
+        <v>14.156666666666666</v>
       </c>
       <c r="L31">
-        <v>9.1166666666666654</v>
+        <v>9.259999999999998</v>
       </c>
       <c r="M31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5703,13 +5703,13 @@
         <v>12.96</v>
       </c>
       <c r="J32">
-        <v>19.066666666666663</v>
+        <v>19.006666666666668</v>
       </c>
       <c r="K32">
-        <v>3.003333333333333</v>
+        <v>3.3033333333333328</v>
       </c>
       <c r="L32">
-        <v>8.706666666666667</v>
+        <v>8.7366666666666664</v>
       </c>
       <c r="M32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5753,13 +5753,13 @@
         <v>20.47</v>
       </c>
       <c r="J33">
-        <v>17.64</v>
+        <v>17.906666666666666</v>
       </c>
       <c r="K33">
-        <v>1.9433333333333334</v>
+        <v>2.6066666666666665</v>
       </c>
       <c r="L33">
-        <v>8.3233333333333324</v>
+        <v>8.3433333333333319</v>
       </c>
       <c r="M33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5803,13 +5803,13 @@
         <v>5.5</v>
       </c>
       <c r="J34">
-        <v>12.96</v>
+        <v>12.606666666666666</v>
       </c>
       <c r="K34">
-        <v>2.6933333333333329</v>
+        <v>1.7766666666666666</v>
       </c>
       <c r="L34">
-        <v>10.093333333333332</v>
+        <v>9.6033333333333317</v>
       </c>
       <c r="M34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5853,13 +5853,13 @@
         <v>18.55</v>
       </c>
       <c r="J35">
-        <v>14.973333333333333</v>
+        <v>14.956666666666667</v>
       </c>
       <c r="K35">
-        <v>7.2866666666666662</v>
+        <v>7.5066666666666659</v>
       </c>
       <c r="L35">
-        <v>10.52</v>
+        <v>10.37</v>
       </c>
       <c r="M35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5903,13 +5903,13 @@
         <v>16.600000000000001</v>
       </c>
       <c r="J36">
-        <v>14.153333333333332</v>
+        <v>14.263333333333332</v>
       </c>
       <c r="K36">
-        <v>3.5666666666666664</v>
+        <v>4.8933333333333326</v>
       </c>
       <c r="L36">
-        <v>8.6899999999999977</v>
+        <v>8.6466666666666647</v>
       </c>
       <c r="M36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5953,13 +5953,13 @@
         <v>14.45</v>
       </c>
       <c r="J37">
-        <v>13.803333333333331</v>
+        <v>14.086666666666666</v>
       </c>
       <c r="K37">
-        <v>7.6</v>
+        <v>6.8966666666666665</v>
       </c>
       <c r="L37">
-        <v>10.513333333333332</v>
+        <v>11.073333333333331</v>
       </c>
       <c r="M37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6003,13 +6003,13 @@
         <v>10.75</v>
       </c>
       <c r="J38">
-        <v>12.016666666666666</v>
+        <v>11.336666666666666</v>
       </c>
       <c r="K38">
-        <v>2.4266666666666663</v>
+        <v>1.44</v>
       </c>
       <c r="L38">
-        <v>9.1333333333333329</v>
+        <v>8.65</v>
       </c>
       <c r="M38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6053,13 +6053,13 @@
         <v>15.8</v>
       </c>
       <c r="J39">
-        <v>13.873333333333333</v>
+        <v>13.92</v>
       </c>
       <c r="K39">
-        <v>5.8966666666666665</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="L39">
-        <v>8.2199999999999989</v>
+        <v>8.09</v>
       </c>
       <c r="M39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6103,13 +6103,13 @@
         <v>18.649999999999999</v>
       </c>
       <c r="J40">
-        <v>15.323333333333334</v>
+        <v>15.133333333333333</v>
       </c>
       <c r="K40">
-        <v>11.246666666666666</v>
+        <v>13.013333333333332</v>
       </c>
       <c r="L40">
-        <v>10.283333333333333</v>
+        <v>10.103333333333332</v>
       </c>
       <c r="M40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6153,13 +6153,13 @@
         <v>14.55</v>
       </c>
       <c r="J41">
-        <v>15.12</v>
+        <v>15.383333333333331</v>
       </c>
       <c r="K41">
-        <v>15.529999999999998</v>
+        <v>15.459999999999997</v>
       </c>
       <c r="L41">
-        <v>9.6499999999999986</v>
+        <v>9.8966666666666647</v>
       </c>
       <c r="M41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6203,13 +6203,13 @@
         <v>18.13</v>
       </c>
       <c r="J42">
-        <v>17.886666666666663</v>
+        <v>17.759999999999998</v>
       </c>
       <c r="K42">
-        <v>3.0533333333333328</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="L42">
-        <v>8.3500000000000014</v>
+        <v>8.1399999999999988</v>
       </c>
       <c r="M42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6253,13 +6253,13 @@
         <v>15.5</v>
       </c>
       <c r="J43">
-        <v>14.173333333333332</v>
+        <v>14.016666666666666</v>
       </c>
       <c r="K43">
-        <v>11.473333333333333</v>
+        <v>8.5599999999999987</v>
       </c>
       <c r="L43">
-        <v>10.77</v>
+        <v>10.79</v>
       </c>
       <c r="M43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6303,13 +6303,13 @@
         <v>20.85</v>
       </c>
       <c r="J44">
-        <v>14.273333333333332</v>
+        <v>14.629999999999999</v>
       </c>
       <c r="K44">
-        <v>14.316666666666666</v>
+        <v>10.313333333333333</v>
       </c>
       <c r="L44">
-        <v>9.009999999999998</v>
+        <v>9.5799999999999983</v>
       </c>
       <c r="M44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6353,13 +6353,13 @@
         <v>12.55</v>
       </c>
       <c r="J45">
-        <v>16.223333333333333</v>
+        <v>16.463333333333331</v>
       </c>
       <c r="K45">
-        <v>17.096666666666664</v>
+        <v>20.086666666666666</v>
       </c>
       <c r="L45">
-        <v>11.75</v>
+        <v>12.063333333333333</v>
       </c>
       <c r="M45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6453,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>7.3699999999999992</v>
+        <v>7.3433333333333328</v>
       </c>
       <c r="K47">
-        <v>1.6833333333333333</v>
+        <v>1.29</v>
       </c>
       <c r="L47">
-        <v>6.1766666666666659</v>
+        <v>6.0366666666666662</v>
       </c>
       <c r="M47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6503,13 +6503,13 @@
         <v>23.05</v>
       </c>
       <c r="J48">
-        <v>17.796666666666667</v>
+        <v>17.479999999999997</v>
       </c>
       <c r="K48">
-        <v>3.5733333333333333</v>
+        <v>3.1166666666666663</v>
       </c>
       <c r="L48">
-        <v>8.3333333333333321</v>
+        <v>8</v>
       </c>
       <c r="M48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6553,13 +6553,13 @@
         <v>9.65</v>
       </c>
       <c r="J49">
-        <v>15.49</v>
+        <v>15.33</v>
       </c>
       <c r="K49">
-        <v>11.86</v>
+        <v>13.856666666666666</v>
       </c>
       <c r="L49">
-        <v>9.0966666666666658</v>
+        <v>9.1</v>
       </c>
       <c r="M49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6603,13 +6603,13 @@
         <v>21.25</v>
       </c>
       <c r="J50">
-        <v>12.533333333333331</v>
+        <v>12.479999999999999</v>
       </c>
       <c r="K50">
-        <v>6.4699999999999989</v>
+        <v>4.503333333333333</v>
       </c>
       <c r="L50">
-        <v>8.0733333333333324</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="M50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6653,13 +6653,13 @@
         <v>13.2</v>
       </c>
       <c r="J51">
-        <v>10.063333333333333</v>
+        <v>9.91</v>
       </c>
       <c r="K51">
-        <v>1.6533333333333333</v>
+        <v>1.7466666666666666</v>
       </c>
       <c r="L51">
-        <v>10.419999999999998</v>
+        <v>9.7233333333333327</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6703,13 +6703,13 @@
         <v>11.35</v>
       </c>
       <c r="J52">
-        <v>13.239999999999998</v>
+        <v>12.926666666666666</v>
       </c>
       <c r="K52">
-        <v>8.379999999999999</v>
+        <v>9.3233333333333341</v>
       </c>
       <c r="L52">
-        <v>10.426666666666666</v>
+        <v>9.8766666666666652</v>
       </c>
       <c r="M52" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6753,13 +6753,13 @@
         <v>6.45</v>
       </c>
       <c r="J53">
-        <v>12.466666666666667</v>
+        <v>12.543333333333333</v>
       </c>
       <c r="K53">
-        <v>2.7733333333333334</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L53">
-        <v>8.5966666666666658</v>
+        <v>8.7566666666666659</v>
       </c>
       <c r="M53" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6803,13 +6803,13 @@
         <v>17.600000000000001</v>
       </c>
       <c r="J54">
-        <v>18.016666666666666</v>
+        <v>18.25</v>
       </c>
       <c r="K54">
-        <v>7.7099999999999991</v>
+        <v>7.5499999999999989</v>
       </c>
       <c r="L54">
-        <v>8.0300000000000011</v>
+        <v>8.2966666666666669</v>
       </c>
       <c r="M54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6853,13 +6853,13 @@
         <v>10.25</v>
       </c>
       <c r="J55">
-        <v>15.406666666666666</v>
+        <v>15.416666666666664</v>
       </c>
       <c r="K55">
-        <v>15.033333333333331</v>
+        <v>13.04</v>
       </c>
       <c r="L55">
-        <v>8.9766666666666666</v>
+        <v>9.0166666666666657</v>
       </c>
       <c r="M55" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6903,13 +6903,13 @@
         <v>11.95</v>
       </c>
       <c r="J56">
-        <v>10.253333333333334</v>
+        <v>10.096666666666666</v>
       </c>
       <c r="K56">
-        <v>1.8066666666666664</v>
+        <v>1.5766666666666667</v>
       </c>
       <c r="L56">
-        <v>8.9133333333333322</v>
+        <v>8.93</v>
       </c>
       <c r="M56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6953,13 +6953,13 @@
         <v>21.67</v>
       </c>
       <c r="J57">
-        <v>16.186666666666667</v>
+        <v>16.09</v>
       </c>
       <c r="K57">
-        <v>2.8166666666666664</v>
+        <v>2.6366666666666667</v>
       </c>
       <c r="L57">
-        <v>8.27</v>
+        <v>8.1866666666666639</v>
       </c>
       <c r="M57" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7053,13 +7053,13 @@
         <v>5.05</v>
       </c>
       <c r="J59">
-        <v>8.6999999999999993</v>
+        <v>8.4133333333333322</v>
       </c>
       <c r="K59">
-        <v>0.94999999999999984</v>
+        <v>0.71333333333333326</v>
       </c>
       <c r="L59">
-        <v>6.9666666666666659</v>
+        <v>6.6133333333333333</v>
       </c>
       <c r="M59" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7103,13 +7103,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="J60">
-        <v>9.1833333333333336</v>
+        <v>9.76</v>
       </c>
       <c r="K60">
-        <v>0.86666666666666659</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="L60">
-        <v>7.1433333333333318</v>
+        <v>7.2033333333333323</v>
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7153,13 +7153,13 @@
         <v>10.75</v>
       </c>
       <c r="J61">
-        <v>11.603333333333332</v>
+        <v>11.836666666666666</v>
       </c>
       <c r="K61">
-        <v>1.6033333333333333</v>
+        <v>1.99</v>
       </c>
       <c r="L61">
-        <v>9.0566666666666649</v>
+        <v>9.3933333333333309</v>
       </c>
       <c r="M61" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7203,13 +7203,13 @@
         <v>20.7</v>
       </c>
       <c r="J62">
-        <v>15.67</v>
+        <v>15.636666666666665</v>
       </c>
       <c r="K62">
-        <v>14.5</v>
+        <v>20.82</v>
       </c>
       <c r="L62">
-        <v>8.8933333333333326</v>
+        <v>8.6366666666666649</v>
       </c>
       <c r="M62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7253,13 +7253,13 @@
         <v>13.16</v>
       </c>
       <c r="J63">
-        <v>15.846666666666666</v>
+        <v>15.583333333333332</v>
       </c>
       <c r="K63">
-        <v>2.6633333333333331</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="L63">
-        <v>7.8500000000000005</v>
+        <v>7.8466666666666658</v>
       </c>
       <c r="M63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7303,13 +7303,13 @@
         <v>8.75</v>
       </c>
       <c r="J64">
-        <v>13.029999999999998</v>
+        <v>13.123333333333331</v>
       </c>
       <c r="K64">
-        <v>7.5966666666666658</v>
+        <v>7.0733333333333324</v>
       </c>
       <c r="L64">
-        <v>7.9566666666666661</v>
+        <v>8.3266666666666662</v>
       </c>
       <c r="M64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7353,13 +7353,13 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J65">
-        <v>11.77</v>
+        <v>11.743333333333332</v>
       </c>
       <c r="K65">
-        <v>6.376666666666666</v>
+        <v>6.4466666666666663</v>
       </c>
       <c r="L65">
-        <v>9.6566666666666663</v>
+        <v>10.183333333333334</v>
       </c>
       <c r="M65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7403,13 +7403,13 @@
         <v>14.25</v>
       </c>
       <c r="J66">
-        <v>12.466666666666667</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="K66">
-        <v>7.1566666666666663</v>
+        <v>9.2733333333333334</v>
       </c>
       <c r="L66">
-        <v>9.2800000000000011</v>
+        <v>9.5633333333333326</v>
       </c>
       <c r="M66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7453,24 +7453,24 @@
         <v>13.43</v>
       </c>
       <c r="J67">
-        <v>13.776666666666664</v>
+        <v>14.123333333333331</v>
       </c>
       <c r="K67">
-        <v>9.0766666666666662</v>
+        <v>13.933333333333334</v>
       </c>
       <c r="L67">
-        <v>10.713333333333333</v>
+        <v>10.913333333333332</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M130" si="3">TRIM(LEFT(G67,FIND("@",G67)-1))</f>
+        <f t="shared" ref="M67:M95" si="3">TRIM(LEFT(G67,FIND("@",G67)-1))</f>
         <v>HOU</v>
       </c>
       <c r="N67" s="2" t="str">
-        <f t="shared" ref="N67:N130" si="4">TRIM(MID(G67,FIND("@",G67)+1,FIND(" ",G67)-FIND("@",G67)-1))</f>
+        <f t="shared" ref="N67:N95" si="4">TRIM(MID(G67,FIND("@",G67)+1,FIND(" ",G67)-FIND("@",G67)-1))</f>
         <v>JAX</v>
       </c>
       <c r="O67" s="2" t="str">
-        <f t="shared" ref="O67:O130" si="5">IF(M67=H67,N67,M67)</f>
+        <f t="shared" ref="O67:O95" si="5">IF(M67=H67,N67,M67)</f>
         <v>HOU</v>
       </c>
     </row>
@@ -7503,13 +7503,13 @@
         <v>9.5</v>
       </c>
       <c r="J68">
-        <v>13.206666666666667</v>
+        <v>15.523333333333333</v>
       </c>
       <c r="K68">
-        <v>8.41</v>
+        <v>22.11333333333333</v>
       </c>
       <c r="L68">
-        <v>9.0466666666666669</v>
+        <v>9.5366666666666671</v>
       </c>
       <c r="M68" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7553,13 +7553,13 @@
         <v>19.22</v>
       </c>
       <c r="J69">
-        <v>15.83</v>
+        <v>15.686666666666666</v>
       </c>
       <c r="K69">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="L69">
-        <v>7.5733333333333324</v>
+        <v>7.6133333333333333</v>
       </c>
       <c r="M69" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7603,13 +7603,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J70">
-        <v>13.069999999999999</v>
+        <v>12.896666666666665</v>
       </c>
       <c r="K70">
-        <v>11.566666666666665</v>
+        <v>8.6033333333333317</v>
       </c>
       <c r="L70">
-        <v>8.8999999999999986</v>
+        <v>9.0233333333333334</v>
       </c>
       <c r="M70" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7653,13 +7653,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J71">
-        <v>10.579999999999998</v>
+        <v>10.516666666666666</v>
       </c>
       <c r="K71">
-        <v>0.87666666666666671</v>
+        <v>1.0233333333333332</v>
       </c>
       <c r="L71">
-        <v>8.5133333333333319</v>
+        <v>8.7466666666666661</v>
       </c>
       <c r="M71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7703,13 +7703,13 @@
         <v>11.8</v>
       </c>
       <c r="J72">
-        <v>12.793333333333331</v>
+        <v>12.633333333333333</v>
       </c>
       <c r="K72">
-        <v>7.8066666666666658</v>
+        <v>7.2299999999999986</v>
       </c>
       <c r="L72">
-        <v>9.1066666666666656</v>
+        <v>9.1833333333333336</v>
       </c>
       <c r="M72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7753,13 +7753,13 @@
         <v>18.57</v>
       </c>
       <c r="J73">
-        <v>16.05</v>
+        <v>15.803333333333331</v>
       </c>
       <c r="K73">
-        <v>2.8233333333333333</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="L73">
-        <v>7.6433333333333326</v>
+        <v>7.5166666666666657</v>
       </c>
       <c r="M73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7803,13 +7803,13 @@
         <v>22.3</v>
       </c>
       <c r="J74">
-        <v>12.87</v>
+        <v>12.713333333333331</v>
       </c>
       <c r="K74">
-        <v>12.459999999999999</v>
+        <v>11.883333333333333</v>
       </c>
       <c r="L74">
-        <v>10.253333333333334</v>
+        <v>9.9333333333333336</v>
       </c>
       <c r="M74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7853,13 +7853,13 @@
         <v>21.44</v>
       </c>
       <c r="J75">
-        <v>14.71</v>
+        <v>14.653333333333332</v>
       </c>
       <c r="K75">
-        <v>1.2</v>
+        <v>0.72999999999999987</v>
       </c>
       <c r="L75">
-        <v>7.1366666666666649</v>
+        <v>7.3599999999999985</v>
       </c>
       <c r="M75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7903,13 +7903,13 @@
         <v>6.1</v>
       </c>
       <c r="J76">
-        <v>11.03</v>
+        <v>10.83</v>
       </c>
       <c r="K76">
-        <v>4.6133333333333333</v>
+        <v>3.5799999999999996</v>
       </c>
       <c r="L76">
-        <v>7.5766666666666653</v>
+        <v>7.7333333333333325</v>
       </c>
       <c r="M76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -7956,10 +7956,10 @@
         <v>5.9333333333333336</v>
       </c>
       <c r="K77">
-        <v>0.33666666666666667</v>
+        <v>0.38</v>
       </c>
       <c r="L77">
-        <v>5.8533333333333335</v>
+        <v>5.8599999999999994</v>
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8053,13 +8053,13 @@
         <v>4.2</v>
       </c>
       <c r="J79">
-        <v>10.829999999999998</v>
+        <v>10.866666666666667</v>
       </c>
       <c r="K79">
-        <v>1.5366666666666666</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L79">
-        <v>8.89</v>
+        <v>9.2566666666666659</v>
       </c>
       <c r="M79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8103,13 +8103,13 @@
         <v>5.57</v>
       </c>
       <c r="J80">
-        <v>15.23</v>
+        <v>14.866666666666665</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>3.4133333333333331</v>
       </c>
       <c r="L80">
-        <v>7.9233333333333329</v>
+        <v>7.6199999999999992</v>
       </c>
       <c r="M80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8153,13 +8153,13 @@
         <v>14.6</v>
       </c>
       <c r="J81">
-        <v>10.383333333333333</v>
+        <v>10.31</v>
       </c>
       <c r="K81">
-        <v>2.2266666666666666</v>
+        <v>1.4366666666666668</v>
       </c>
       <c r="L81">
-        <v>8.2133333333333329</v>
+        <v>8.0366666666666653</v>
       </c>
       <c r="M81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8203,13 +8203,13 @@
         <v>12.4</v>
       </c>
       <c r="J82">
-        <v>11.213333333333333</v>
+        <v>11.173333333333332</v>
       </c>
       <c r="K82">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="L82">
-        <v>9.0566666666666666</v>
+        <v>8.99</v>
       </c>
       <c r="M82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8253,13 +8253,13 @@
         <v>15.65</v>
       </c>
       <c r="J83">
-        <v>10.083333333333332</v>
+        <v>10.053333333333333</v>
       </c>
       <c r="K83">
-        <v>1.1433333333333333</v>
+        <v>1.4633333333333332</v>
       </c>
       <c r="L83">
-        <v>7.9433333333333334</v>
+        <v>7.9599999999999991</v>
       </c>
       <c r="M83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8303,13 +8303,13 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="J84">
-        <v>8.09</v>
+        <v>7.8099999999999987</v>
       </c>
       <c r="K84">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="L84">
-        <v>6.0333333333333332</v>
+        <v>6.1766666666666659</v>
       </c>
       <c r="M84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8353,13 +8353,13 @@
         <v>14.1</v>
       </c>
       <c r="J85">
-        <v>12.046666666666667</v>
+        <v>11.93</v>
       </c>
       <c r="K85">
-        <v>0.48666666666666669</v>
+        <v>0.41999999999999993</v>
       </c>
       <c r="L85">
-        <v>6.2133333333333329</v>
+        <v>6.163333333333334</v>
       </c>
       <c r="M85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8403,13 +8403,13 @@
         <v>9.1</v>
       </c>
       <c r="J86">
-        <v>10.313333333333333</v>
+        <v>9.9633333333333329</v>
       </c>
       <c r="K86">
-        <v>2.9033333333333333</v>
+        <v>1.2366666666666668</v>
       </c>
       <c r="L86">
-        <v>7.1966666666666663</v>
+        <v>7.09</v>
       </c>
       <c r="M86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8453,13 +8453,13 @@
         <v>13.23</v>
       </c>
       <c r="J87">
-        <v>13.556666666666667</v>
+        <v>13.453333333333333</v>
       </c>
       <c r="K87">
-        <v>0.86333333333333329</v>
+        <v>0.58666666666666656</v>
       </c>
       <c r="L87">
-        <v>7.0333333333333332</v>
+        <v>6.9700000000000006</v>
       </c>
       <c r="M87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8503,13 +8503,13 @@
         <v>15.64</v>
       </c>
       <c r="J88">
-        <v>14.276666666666666</v>
+        <v>14.299999999999999</v>
       </c>
       <c r="K88">
-        <v>1.9066666666666667</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="L88">
-        <v>7.6000000000000005</v>
+        <v>7.5466666666666651</v>
       </c>
       <c r="M88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8553,13 +8553,13 @@
         <v>9.35</v>
       </c>
       <c r="J89">
-        <v>12.046666666666667</v>
+        <v>12.043333333333333</v>
       </c>
       <c r="K89">
-        <v>9.5299999999999994</v>
+        <v>9.6599999999999984</v>
       </c>
       <c r="L89">
-        <v>9.67</v>
+        <v>9.1866666666666656</v>
       </c>
       <c r="M89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8603,13 +8603,13 @@
         <v>1.9</v>
       </c>
       <c r="J90">
-        <v>6.0399999999999991</v>
+        <v>6.129999999999999</v>
       </c>
       <c r="K90">
-        <v>0.86999999999999988</v>
+        <v>0.52</v>
       </c>
       <c r="L90">
-        <v>6.0399999999999991</v>
+        <v>6.1666666666666661</v>
       </c>
       <c r="M90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8803,13 +8803,13 @@
         <v>8.6</v>
       </c>
       <c r="J94">
-        <v>10.133333333333333</v>
+        <v>9.5133333333333319</v>
       </c>
       <c r="K94">
-        <v>2.8266666666666667</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="L94">
-        <v>6.83</v>
+        <v>6.7533333333333339</v>
       </c>
       <c r="M94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8853,13 +8853,13 @@
         <v>10.3</v>
       </c>
       <c r="J95">
-        <v>12.463333333333333</v>
+        <v>12.513333333333332</v>
       </c>
       <c r="K95">
-        <v>0.57666666666666655</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="L95">
-        <v>6.8266666666666644</v>
+        <v>6.759999999999998</v>
       </c>
       <c r="M95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -8953,13 +8953,13 @@
         <v>7.1</v>
       </c>
       <c r="J97">
-        <v>11.309999999999999</v>
+        <v>11.196666666666665</v>
       </c>
       <c r="K97">
-        <v>4.7166666666666668</v>
+        <v>5.9633333333333329</v>
       </c>
       <c r="L97">
-        <v>8.9833333333333325</v>
+        <v>8.923333333333332</v>
       </c>
       <c r="M97" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9003,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>13.666666666666666</v>
+        <v>13.449999999999998</v>
       </c>
       <c r="K98">
-        <v>1.5666666666666667</v>
+        <v>0.95333333333333325</v>
       </c>
       <c r="L98">
-        <v>7.0366666666666671</v>
+        <v>6.9933333333333332</v>
       </c>
       <c r="M98" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9053,13 +9053,13 @@
         <v>13.05</v>
       </c>
       <c r="J99">
-        <v>11.77</v>
+        <v>11.646666666666665</v>
       </c>
       <c r="K99">
-        <v>5.2433333333333332</v>
+        <v>6.3599999999999994</v>
       </c>
       <c r="L99">
-        <v>8.379999999999999</v>
+        <v>8.293333333333333</v>
       </c>
       <c r="M99" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9153,13 +9153,13 @@
         <v>14.85</v>
       </c>
       <c r="J101">
-        <v>12.423333333333332</v>
+        <v>12.11</v>
       </c>
       <c r="K101">
-        <v>19.176666666666666</v>
+        <v>14.806666666666665</v>
       </c>
       <c r="L101">
-        <v>8.4499999999999993</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="M101" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9206,10 +9206,10 @@
         <v>9.3266666666666662</v>
       </c>
       <c r="K102">
-        <v>1.9300000000000002</v>
+        <v>1.0933333333333333</v>
       </c>
       <c r="L102">
-        <v>8.6033333333333317</v>
+        <v>8.7633333333333319</v>
       </c>
       <c r="M102" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9253,13 +9253,13 @@
         <v>10.8</v>
       </c>
       <c r="J103">
-        <v>11.253333333333334</v>
+        <v>11.469999999999999</v>
       </c>
       <c r="K103">
-        <v>3.66</v>
+        <v>6.793333333333333</v>
       </c>
       <c r="L103">
-        <v>8.8266666666666662</v>
+        <v>8.9633333333333347</v>
       </c>
       <c r="M103" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9303,13 +9303,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J104">
-        <v>0.3666666666666667</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0.56666666666666665</v>
+        <v>0</v>
       </c>
       <c r="M104" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9453,13 +9453,13 @@
         <v>6.6</v>
       </c>
       <c r="J107">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="K107">
-        <v>0.11666666666666665</v>
+        <v>0.15</v>
       </c>
       <c r="L107">
-        <v>4.9966666666666661</v>
+        <v>5.1933333333333334</v>
       </c>
       <c r="M107" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9603,13 +9603,13 @@
         <v>8.15</v>
       </c>
       <c r="J110">
-        <v>10.063333333333333</v>
+        <v>9.8333333333333321</v>
       </c>
       <c r="K110">
-        <v>1.6866666666666665</v>
+        <v>1.0166666666666666</v>
       </c>
       <c r="L110">
-        <v>8.36</v>
+        <v>8.466666666666665</v>
       </c>
       <c r="M110" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9703,13 +9703,13 @@
         <v>3.15</v>
       </c>
       <c r="J112">
-        <v>3.5633333333333326</v>
+        <v>3.5199999999999996</v>
       </c>
       <c r="K112">
-        <v>0.17666666666666667</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="L112">
-        <v>5.293333333333333</v>
+        <v>5.1266666666666669</v>
       </c>
       <c r="M112" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9753,13 +9753,13 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J113">
-        <v>1.5966666666666667</v>
+        <v>1.5766666666666667</v>
       </c>
       <c r="K113">
-        <v>1.9999999999999997E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L113">
-        <v>3.6166666666666663</v>
+        <v>3.4666666666666668</v>
       </c>
       <c r="M113" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9803,13 +9803,13 @@
         <v>5.45</v>
       </c>
       <c r="J114">
-        <v>8.4499999999999993</v>
+        <v>8.413333333333334</v>
       </c>
       <c r="K114">
-        <v>0.43666666666666665</v>
+        <v>0.63</v>
       </c>
       <c r="L114">
-        <v>8.3933333333333326</v>
+        <v>8.3433333333333319</v>
       </c>
       <c r="M114" s="2" t="str">
         <f t="shared" si="6"/>
@@ -9903,13 +9903,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J116">
-        <v>7.1166666666666663</v>
+        <v>6.85</v>
       </c>
       <c r="K116">
-        <v>0.64</v>
+        <v>0.48666666666666658</v>
       </c>
       <c r="L116">
-        <v>6.09</v>
+        <v>5.8966666666666665</v>
       </c>
       <c r="M116" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10003,13 +10003,13 @@
         <v>11.85</v>
       </c>
       <c r="J118">
-        <v>6.9799999999999986</v>
+        <v>6.9766666666666666</v>
       </c>
       <c r="K118">
-        <v>0.3833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L118">
-        <v>5.796666666666666</v>
+        <v>6.043333333333333</v>
       </c>
       <c r="M118" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10053,13 +10053,13 @@
         <v>5.65</v>
       </c>
       <c r="J119">
-        <v>8.0399999999999991</v>
+        <v>7.8433333333333319</v>
       </c>
       <c r="K119">
-        <v>0.57333333333333325</v>
+        <v>0.87</v>
       </c>
       <c r="L119">
-        <v>7.2133333333333329</v>
+        <v>7.3533333333333326</v>
       </c>
       <c r="M119" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10153,13 +10153,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>4.3466666666666667</v>
+        <v>3.9133333333333331</v>
       </c>
       <c r="K121">
-        <v>0.53666666666666663</v>
+        <v>9.3333333333333324E-2</v>
       </c>
       <c r="L121">
-        <v>3.753333333333333</v>
+        <v>3.3666666666666663</v>
       </c>
       <c r="M121" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10453,13 +10453,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J127">
-        <v>9.1933333333333316</v>
+        <v>8.8633333333333333</v>
       </c>
       <c r="K127">
-        <v>1.7300000000000002</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="L127">
-        <v>8.0300000000000011</v>
+        <v>7.5933333333333328</v>
       </c>
       <c r="M127" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10503,13 +10503,13 @@
         <v>2.9</v>
       </c>
       <c r="J128">
-        <v>3.07</v>
+        <v>1.0333333333333332</v>
       </c>
       <c r="K128">
-        <v>0.08</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L128">
-        <v>3.79</v>
+        <v>1.5433333333333334</v>
       </c>
       <c r="M128" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10653,13 +10653,13 @@
         <v>3.05</v>
       </c>
       <c r="J131">
-        <v>1.5166666666666666</v>
+        <v>1.6399999999999997</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L131">
-        <v>2.64</v>
+        <v>2.6233333333333335</v>
       </c>
       <c r="M131" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10703,13 +10703,13 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0.84666666666666668</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="K132">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L132">
-        <v>2.2633333333333332</v>
+        <v>2.3366666666666669</v>
       </c>
       <c r="M132" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10753,13 +10753,13 @@
         <v>7.95</v>
       </c>
       <c r="J133">
-        <v>6.9566666666666661</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="K133">
-        <v>1.76</v>
+        <v>0.81999999999999984</v>
       </c>
       <c r="L133">
-        <v>7.8933333333333326</v>
+        <v>6.8199999999999985</v>
       </c>
       <c r="M133" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10853,13 +10853,13 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="J135">
-        <v>5.1233333333333331</v>
+        <v>5.2633333333333336</v>
       </c>
       <c r="K135">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L135">
-        <v>5.34</v>
+        <v>5.5266666666666664</v>
       </c>
       <c r="M135" s="2" t="str">
         <f t="shared" si="6"/>
@@ -10903,13 +10903,13 @@
         <v>8.25</v>
       </c>
       <c r="J136">
-        <v>3.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>1.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>2.0666666666666664</v>
+        <v>0</v>
       </c>
       <c r="M136" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11003,13 +11003,13 @@
         <v>1.95</v>
       </c>
       <c r="J138">
-        <v>4.2666666666666666</v>
+        <v>5.0299999999999994</v>
       </c>
       <c r="K138">
-        <v>0.18333333333333332</v>
+        <v>0.59666666666666657</v>
       </c>
       <c r="L138">
-        <v>6.0966666666666658</v>
+        <v>6.4133333333333322</v>
       </c>
       <c r="M138" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11053,13 +11053,13 @@
         <v>6.9</v>
       </c>
       <c r="J139">
-        <v>4.0133333333333336</v>
+        <v>4.0366666666666662</v>
       </c>
       <c r="K139">
-        <v>0.14333333333333334</v>
+        <v>0.15333333333333332</v>
       </c>
       <c r="L139">
-        <v>5.1599999999999984</v>
+        <v>5.16</v>
       </c>
       <c r="M139" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11103,13 +11103,13 @@
         <v>3.05</v>
       </c>
       <c r="J140">
-        <v>5.6166666666666663</v>
+        <v>5.4433333333333325</v>
       </c>
       <c r="K140">
-        <v>0.36666666666666664</v>
+        <v>0.44666666666666666</v>
       </c>
       <c r="L140">
-        <v>6.083333333333333</v>
+        <v>6.39</v>
       </c>
       <c r="M140" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11203,13 +11203,13 @@
         <v>3.85</v>
       </c>
       <c r="J142">
-        <v>4.793333333333333</v>
+        <v>4.57</v>
       </c>
       <c r="K142">
-        <v>0.24</v>
+        <v>0.38666666666666671</v>
       </c>
       <c r="L142">
-        <v>5.9066666666666663</v>
+        <v>5.8166666666666664</v>
       </c>
       <c r="M142" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11303,13 +11303,13 @@
         <v>3.6</v>
       </c>
       <c r="J144">
-        <v>8.0833333333333321</v>
+        <v>7.9399999999999995</v>
       </c>
       <c r="K144">
-        <v>1.4766666666666666</v>
+        <v>1.4533333333333331</v>
       </c>
       <c r="L144">
-        <v>7.1966666666666663</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="M144" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11353,13 +11353,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>5.3233333333333333</v>
+        <v>5.29</v>
       </c>
       <c r="K145">
-        <v>0.34333333333333332</v>
+        <v>0.75333333333333319</v>
       </c>
       <c r="L145">
-        <v>7.1866666666666665</v>
+        <v>7.293333333333333</v>
       </c>
       <c r="M145" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11403,13 +11403,13 @@
         <v>5.65</v>
       </c>
       <c r="J146">
-        <v>6.3033333333333328</v>
+        <v>6.55</v>
       </c>
       <c r="K146">
-        <v>0.30666666666666664</v>
+        <v>0.48</v>
       </c>
       <c r="L146">
-        <v>5.6333333333333329</v>
+        <v>5.74</v>
       </c>
       <c r="M146" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11453,13 +11453,13 @@
         <v>0.75</v>
       </c>
       <c r="J147">
-        <v>9.913333333333334</v>
+        <v>9.9766666666666666</v>
       </c>
       <c r="K147">
-        <v>4.1166666666666663</v>
+        <v>1.9233333333333333</v>
       </c>
       <c r="L147">
-        <v>7.6866666666666665</v>
+        <v>7.7099999999999991</v>
       </c>
       <c r="M147" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11553,13 +11553,13 @@
         <v>12.55</v>
       </c>
       <c r="J149">
-        <v>10.383333333333333</v>
+        <v>10.363333333333333</v>
       </c>
       <c r="K149">
-        <v>4.2266666666666666</v>
+        <v>4.4366666666666656</v>
       </c>
       <c r="L149">
-        <v>7.8699999999999992</v>
+        <v>8.0333333333333314</v>
       </c>
       <c r="M149" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0.33333333333333331</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="M150" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11653,13 +11653,13 @@
         <v>2.95</v>
       </c>
       <c r="J151">
-        <v>3.6766666666666663</v>
+        <v>3.5899999999999994</v>
       </c>
       <c r="K151">
-        <v>0.19</v>
+        <v>0.22333333333333333</v>
       </c>
       <c r="L151">
-        <v>4.8466666666666658</v>
+        <v>4.5033333333333339</v>
       </c>
       <c r="M151" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11703,13 +11703,13 @@
         <v>3.5</v>
       </c>
       <c r="J152">
-        <v>2.5766666666666667</v>
+        <v>2.5866666666666664</v>
       </c>
       <c r="K152">
-        <v>0.28333333333333333</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L152">
-        <v>4.0333333333333332</v>
+        <v>3.9666666666666663</v>
       </c>
       <c r="M152" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11753,13 +11753,13 @@
         <v>26</v>
       </c>
       <c r="J153">
-        <v>9.0766666666666662</v>
+        <v>9.0566666666666666</v>
       </c>
       <c r="K153">
-        <v>3.48</v>
+        <v>3.3933333333333326</v>
       </c>
       <c r="L153">
-        <v>3.6166666666666663</v>
+        <v>3.8033333333333332</v>
       </c>
       <c r="M153" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11853,13 +11853,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="J155">
-        <v>8.2366666666666664</v>
+        <v>7.8666666666666671</v>
       </c>
       <c r="K155">
-        <v>1.6666666666666667</v>
+        <v>1.0966666666666667</v>
       </c>
       <c r="L155">
-        <v>7.7466666666666661</v>
+        <v>7.9933333333333323</v>
       </c>
       <c r="M155" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11903,13 +11903,13 @@
         <v>7.65</v>
       </c>
       <c r="J156">
-        <v>7.7566666666666659</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="K156">
-        <v>1.4066666666666667</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="L156">
-        <v>7.6033333333333317</v>
+        <v>7.6</v>
       </c>
       <c r="M156" s="2" t="str">
         <f t="shared" si="6"/>
@@ -11953,13 +11953,13 @@
         <v>7.65</v>
       </c>
       <c r="J157">
-        <v>8.4466666666666654</v>
+        <v>8.5633333333333326</v>
       </c>
       <c r="K157">
-        <v>0.8666666666666667</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="L157">
-        <v>7.7866666666666653</v>
+        <v>7.8933333333333326</v>
       </c>
       <c r="M157" s="2" t="str">
         <f t="shared" si="6"/>
@@ -12003,13 +12003,13 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>8.206666666666667</v>
+        <v>7.48</v>
       </c>
       <c r="K158">
-        <v>2.2399999999999998</v>
+        <v>3.8266666666666667</v>
       </c>
       <c r="L158">
-        <v>7.0133333333333336</v>
+        <v>6.7966666666666651</v>
       </c>
       <c r="M158" s="2" t="str">
         <f t="shared" si="6"/>
@@ -12053,13 +12053,13 @@
         <v>2.85</v>
       </c>
       <c r="J159">
-        <v>4.2166666666666659</v>
+        <v>4.1966666666666663</v>
       </c>
       <c r="K159">
-        <v>0.72333333333333327</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L159">
-        <v>5.629999999999999</v>
+        <v>5.6166666666666663</v>
       </c>
       <c r="M159" s="2" t="str">
         <f t="shared" si="6"/>
@@ -12103,13 +12103,13 @@
         <v>7.55</v>
       </c>
       <c r="J160">
-        <v>7.49</v>
+        <v>7.46</v>
       </c>
       <c r="K160">
-        <v>0.59666666666666657</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="L160">
-        <v>6.5600000000000005</v>
+        <v>6.5399999999999991</v>
       </c>
       <c r="M160" s="2" t="str">
         <f t="shared" ref="M160:M223" si="9">TRIM(LEFT(G160,FIND("@",G160)-1))</f>
@@ -12203,13 +12203,13 @@
         <v>6.35</v>
       </c>
       <c r="J162">
-        <v>8.5399999999999991</v>
+        <v>8.6433333333333344</v>
       </c>
       <c r="K162">
-        <v>3.3266666666666662</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="L162">
-        <v>7.0933333333333328</v>
+        <v>7.5399999999999991</v>
       </c>
       <c r="M162" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12253,13 +12253,13 @@
         <v>8.6</v>
       </c>
       <c r="J163">
-        <v>8.3033333333333328</v>
+        <v>8.2033333333333331</v>
       </c>
       <c r="K163">
-        <v>1.1233333333333333</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="L163">
-        <v>7.5299999999999994</v>
+        <v>7.3033333333333346</v>
       </c>
       <c r="M163" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12303,13 +12303,13 @@
         <v>6.1</v>
       </c>
       <c r="J164">
-        <v>8.5333333333333332</v>
+        <v>8.3833333333333329</v>
       </c>
       <c r="K164">
-        <v>1.8666666666666665</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="L164">
-        <v>7.72</v>
+        <v>7.7066666666666661</v>
       </c>
       <c r="M164" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12353,13 +12353,13 @@
         <v>17.8</v>
       </c>
       <c r="J165">
-        <v>10.45</v>
+        <v>10.456666666666667</v>
       </c>
       <c r="K165">
-        <v>11.763333333333332</v>
+        <v>10.223333333333333</v>
       </c>
       <c r="L165">
-        <v>9.3766666666666669</v>
+        <v>9.0933333333333337</v>
       </c>
       <c r="M165" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12403,13 +12403,13 @@
         <v>15.15</v>
       </c>
       <c r="J166">
-        <v>9.2533333333333321</v>
+        <v>9.08</v>
       </c>
       <c r="K166">
-        <v>4.6966666666666672</v>
+        <v>2.4566666666666666</v>
       </c>
       <c r="L166">
-        <v>7.8599999999999994</v>
+        <v>7.9933333333333323</v>
       </c>
       <c r="M166" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12453,13 +12453,13 @@
         <v>0.1</v>
       </c>
       <c r="J167">
-        <v>2.2233333333333332</v>
+        <v>2.1733333333333333</v>
       </c>
       <c r="K167">
-        <v>1.9999999999999997E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L167">
-        <v>3.3366666666666669</v>
+        <v>3.1166666666666663</v>
       </c>
       <c r="M167" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12503,13 +12503,13 @@
         <v>5.05</v>
       </c>
       <c r="J168">
-        <v>7.89</v>
+        <v>8.3933333333333326</v>
       </c>
       <c r="K168">
-        <v>1.38</v>
+        <v>3.3433333333333328</v>
       </c>
       <c r="L168">
-        <v>8.9033333333333324</v>
+        <v>8.7333333333333325</v>
       </c>
       <c r="M168" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12603,13 +12603,13 @@
         <v>1.95</v>
       </c>
       <c r="J170">
-        <v>5.7633333333333336</v>
+        <v>6.1766666666666659</v>
       </c>
       <c r="K170">
-        <v>0.30666666666666664</v>
+        <v>0.34666666666666668</v>
       </c>
       <c r="L170">
-        <v>6.919999999999999</v>
+        <v>6.9499999999999993</v>
       </c>
       <c r="M170" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12653,13 +12653,13 @@
         <v>16.899999999999999</v>
       </c>
       <c r="J171">
-        <v>7.9266666666666659</v>
+        <v>7.8933333333333326</v>
       </c>
       <c r="K171">
-        <v>1.0366666666666666</v>
+        <v>0.94333333333333325</v>
       </c>
       <c r="L171">
-        <v>7.4466666666666672</v>
+        <v>7.3299999999999992</v>
       </c>
       <c r="M171" s="2" t="str">
         <f t="shared" si="9"/>
@@ -12703,13 +12703,13 @@
         <v>3.8</v>
       </c>
       <c r="J172">
-        <v>4.3</v>
+        <v>4.6366666666666667</v>
       </c>
       <c r="K172">
-        <v>0.68666666666666665</v>
+        <v>0.49666666666666659</v>
       </c>
       <c r="L172">
-        <v>7.7466666666666661</v>
+        <v>7.1099999999999994</v>
       </c>
       <c r="M172" s="2" t="str">
         <f t="shared" si="9"/>
@@ -13053,13 +13053,13 @@
         <v>1.6</v>
       </c>
       <c r="J179">
-        <v>0.72666666666666657</v>
+        <v>0.54</v>
       </c>
       <c r="K179">
-        <v>9.9999999999999985E-3</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="L179">
-        <v>2.1633333333333331</v>
+        <v>2.5033333333333334</v>
       </c>
       <c r="M179" s="2" t="str">
         <f t="shared" si="9"/>
@@ -13303,13 +13303,13 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>0.32999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="K184">
-        <v>9.9999999999999985E-3</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L184">
-        <v>0.69666666666666666</v>
+        <v>0.59333333333333327</v>
       </c>
       <c r="M184" s="2" t="str">
         <f t="shared" si="9"/>
@@ -13653,13 +13653,13 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>2.333333333333333</v>
+        <v>2.0733333333333333</v>
       </c>
       <c r="K191">
-        <v>3.3333333333333331E-3</v>
+        <v>0</v>
       </c>
       <c r="L191">
-        <v>4.7866666666666671</v>
+        <v>4.22</v>
       </c>
       <c r="M191" s="2" t="str">
         <f t="shared" si="9"/>
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.3</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="M196" s="2" t="str">
         <f t="shared" si="9"/>
@@ -13953,13 +13953,13 @@
         <v>10.1</v>
       </c>
       <c r="J197">
-        <v>9.6433333333333326</v>
+        <v>9.7866666666666653</v>
       </c>
       <c r="K197">
-        <v>4.4033333333333324</v>
+        <v>6.17</v>
       </c>
       <c r="L197">
-        <v>7.9699999999999989</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="M197" s="2" t="str">
         <f t="shared" si="9"/>
@@ -14103,13 +14103,13 @@
         <v>0.5</v>
       </c>
       <c r="J200">
-        <v>1.4166666666666665</v>
+        <v>1.4133333333333333</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L200">
-        <v>2.3166666666666664</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="M200" s="2" t="str">
         <f t="shared" si="9"/>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="M204" s="2" t="str">
         <f t="shared" si="9"/>
@@ -14703,13 +14703,13 @@
         <v>0.4</v>
       </c>
       <c r="J212">
-        <v>1.8</v>
+        <v>1.7533333333333332</v>
       </c>
       <c r="K212">
-        <v>2.3333333333333334E-2</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="L212">
-        <v>2.8633333333333333</v>
+        <v>2.753333333333333</v>
       </c>
       <c r="M212" s="2" t="str">
         <f t="shared" si="9"/>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>1.2000000000000002</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="M213" s="2" t="str">
         <f t="shared" si="9"/>
@@ -15003,13 +15003,13 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>1.0766666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L218">
-        <v>2.7033333333333331</v>
+        <v>3.4266666666666663</v>
       </c>
       <c r="M218" s="2" t="str">
         <f t="shared" si="9"/>
@@ -15103,13 +15103,13 @@
         <v>2.7</v>
       </c>
       <c r="J220">
-        <v>1.9766666666666668</v>
+        <v>2</v>
       </c>
       <c r="K220">
-        <v>0.73333333333333339</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="L220">
-        <v>2.543333333333333</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="M220" s="2" t="str">
         <f t="shared" si="9"/>
@@ -15203,13 +15203,13 @@
         <v>3.4</v>
       </c>
       <c r="J222">
-        <v>0.78666666666666663</v>
+        <v>0.77666666666666662</v>
       </c>
       <c r="K222">
-        <v>1.3333333333333332E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L222">
-        <v>1.3199999999999998</v>
+        <v>1.31</v>
       </c>
       <c r="M222" s="2" t="str">
         <f t="shared" si="9"/>
@@ -15503,13 +15503,13 @@
         <v>0.3</v>
       </c>
       <c r="J228">
-        <v>0.67333333333333334</v>
+        <v>1.0766666666666667</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L228">
-        <v>1.1399999999999997</v>
+        <v>1.7099999999999997</v>
       </c>
       <c r="M228" s="2" t="str">
         <f t="shared" si="12"/>
@@ -15703,13 +15703,13 @@
         <v>1.35</v>
       </c>
       <c r="J232">
-        <v>2.0933333333333328</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="L232">
-        <v>3.0766666666666662</v>
+        <v>4.3566666666666665</v>
       </c>
       <c r="M232" s="2" t="str">
         <f t="shared" si="12"/>
@@ -15753,13 +15753,13 @@
         <v>9.25</v>
       </c>
       <c r="J233">
-        <v>9.5966666666666658</v>
+        <v>9.5666666666666664</v>
       </c>
       <c r="K233">
-        <v>5.4233333333333329</v>
+        <v>5.706666666666667</v>
       </c>
       <c r="L233">
-        <v>8.6133333333333333</v>
+        <v>8.66</v>
       </c>
       <c r="M233" s="2" t="str">
         <f t="shared" si="12"/>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0.83333333333333326</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="M246" s="2" t="str">
         <f t="shared" si="12"/>
@@ -16503,13 +16503,13 @@
         <v>0.35</v>
       </c>
       <c r="J248">
-        <v>0.54999999999999993</v>
+        <v>0.54666666666666663</v>
       </c>
       <c r="K248">
-        <v>1.6666666666666666E-2</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L248">
-        <v>1.25</v>
+        <v>1.2466666666666666</v>
       </c>
       <c r="M248" s="2" t="str">
         <f t="shared" si="12"/>
@@ -16753,13 +16753,13 @@
         <v>1.55</v>
       </c>
       <c r="J253">
-        <v>1.9733333333333334</v>
+        <v>1.6433333333333331</v>
       </c>
       <c r="K253">
-        <v>1.3333333333333332E-2</v>
+        <v>3.3333333333333331E-3</v>
       </c>
       <c r="L253">
-        <v>2.5733333333333333</v>
+        <v>2.3433333333333333</v>
       </c>
       <c r="M253" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17159,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M261" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17253,13 +17253,13 @@
         <v>1.25</v>
       </c>
       <c r="J263">
-        <v>1.01</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="K263">
-        <v>1.3333333333333332E-2</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="L263">
-        <v>2.9533333333333336</v>
+        <v>2.503333333333333</v>
       </c>
       <c r="M263" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17603,13 +17603,13 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>0.14333333333333331</v>
+        <v>0.12666666666666665</v>
       </c>
       <c r="K270">
-        <v>1.3333333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="L270">
-        <v>0.14333333333333331</v>
+        <v>0.12666666666666665</v>
       </c>
       <c r="M270" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="L271">
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="M271" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17753,13 +17753,13 @@
         <v>4.95</v>
       </c>
       <c r="J273">
-        <v>8.0666666666666664</v>
+        <v>8.48</v>
       </c>
       <c r="K273">
-        <v>2.523333333333333</v>
+        <v>3.2566666666666668</v>
       </c>
       <c r="L273">
-        <v>7.4633333333333329</v>
+        <v>7.7033333333333331</v>
       </c>
       <c r="M273" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17803,13 +17803,13 @@
         <v>13.1</v>
       </c>
       <c r="J274">
-        <v>3.0933333333333333</v>
+        <v>3.1066666666666665</v>
       </c>
       <c r="K274">
-        <v>5.333333333333333E-2</v>
+        <v>0.3</v>
       </c>
       <c r="L274">
-        <v>5.2333333333333334</v>
+        <v>5.3133333333333326</v>
       </c>
       <c r="M274" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17853,13 +17853,13 @@
         <v>11.8</v>
       </c>
       <c r="J275">
-        <v>9.913333333333334</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="K275">
-        <v>8.3699999999999992</v>
+        <v>7.3266666666666662</v>
       </c>
       <c r="L275">
-        <v>7.9466666666666663</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="M275" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17903,13 +17903,13 @@
         <v>7</v>
       </c>
       <c r="J276">
-        <v>9.1199999999999992</v>
+        <v>9.0633333333333326</v>
       </c>
       <c r="K276">
-        <v>5.2333333333333325</v>
+        <v>5.253333333333333</v>
       </c>
       <c r="L276">
-        <v>3.8666666666666671</v>
+        <v>3.8866666666666667</v>
       </c>
       <c r="M276" s="2" t="str">
         <f t="shared" si="12"/>
@@ -17953,13 +17953,13 @@
         <v>13.15</v>
       </c>
       <c r="J277">
-        <v>9.0733333333333341</v>
+        <v>9.0233333333333334</v>
       </c>
       <c r="K277">
-        <v>4.7733333333333334</v>
+        <v>4.6333333333333329</v>
       </c>
       <c r="L277">
-        <v>8.0399999999999991</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="M277" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18003,13 +18003,13 @@
         <v>9.5</v>
       </c>
       <c r="J278">
-        <v>7.7799999999999994</v>
+        <v>7.793333333333333</v>
       </c>
       <c r="K278">
-        <v>2.0466666666666669</v>
+        <v>1.9699999999999998</v>
       </c>
       <c r="L278">
-        <v>3.5366666666666666</v>
+        <v>3.28</v>
       </c>
       <c r="M278" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18053,13 +18053,13 @@
         <v>6</v>
       </c>
       <c r="J279">
-        <v>7.24</v>
+        <v>7.3133333333333326</v>
       </c>
       <c r="K279">
-        <v>1.0266666666666666</v>
+        <v>0.95999999999999985</v>
       </c>
       <c r="L279">
-        <v>6.8033333333333328</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="M279" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18103,13 +18103,13 @@
         <v>11.7</v>
       </c>
       <c r="J280">
-        <v>8.8466666666666658</v>
+        <v>8.8266666666666662</v>
       </c>
       <c r="K280">
-        <v>4.6666666666666661</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L280">
-        <v>7.9333333333333336</v>
+        <v>8.1333333333333329</v>
       </c>
       <c r="M280" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18153,13 +18153,13 @@
         <v>2.5</v>
       </c>
       <c r="J281">
-        <v>6.8333333333333339</v>
+        <v>6.8866666666666667</v>
       </c>
       <c r="K281">
-        <v>0.42666666666666664</v>
+        <v>0.47</v>
       </c>
       <c r="L281">
-        <v>7.52</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="M281" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18203,13 +18203,13 @@
         <v>10.050000000000001</v>
       </c>
       <c r="J282">
-        <v>8.1900000000000013</v>
+        <v>8.0133333333333319</v>
       </c>
       <c r="K282">
-        <v>1.6766666666666665</v>
+        <v>1.1466666666666667</v>
       </c>
       <c r="L282">
-        <v>6.8566666666666656</v>
+        <v>6.8966666666666674</v>
       </c>
       <c r="M282" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18253,13 +18253,13 @@
         <v>7</v>
       </c>
       <c r="J283">
-        <v>8.163333333333334</v>
+        <v>8.2633333333333319</v>
       </c>
       <c r="K283">
-        <v>3.0566666666666666</v>
+        <v>2.9033333333333333</v>
       </c>
       <c r="L283">
-        <v>3.7233333333333332</v>
+        <v>3.7666666666666662</v>
       </c>
       <c r="M283" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18303,13 +18303,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J284">
-        <v>9.0466666666666669</v>
+        <v>8.9966666666666661</v>
       </c>
       <c r="K284">
-        <v>5.7999999999999989</v>
+        <v>4.2133333333333329</v>
       </c>
       <c r="L284">
-        <v>7.3999999999999986</v>
+        <v>7.3099999999999987</v>
       </c>
       <c r="M284" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18353,13 +18353,13 @@
         <v>8.6</v>
       </c>
       <c r="J285">
-        <v>8.2399999999999984</v>
+        <v>8.18</v>
       </c>
       <c r="K285">
-        <v>0.98666666666666669</v>
+        <v>1.3233333333333333</v>
       </c>
       <c r="L285">
-        <v>6.6099999999999994</v>
+        <v>6.5699999999999994</v>
       </c>
       <c r="M285" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18406,10 +18406,10 @@
         <v>6.8533333333333335</v>
       </c>
       <c r="K286">
-        <v>0.51666666666666661</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="L286">
-        <v>7.5166666666666657</v>
+        <v>7.5066666666666668</v>
       </c>
       <c r="M286" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18453,13 +18453,13 @@
         <v>13.3</v>
       </c>
       <c r="J287">
-        <v>9.9266666666666659</v>
+        <v>9.82</v>
       </c>
       <c r="K287">
-        <v>8.456666666666667</v>
+        <v>10.163333333333334</v>
       </c>
       <c r="L287">
-        <v>7.9699999999999989</v>
+        <v>7.8766666666666652</v>
       </c>
       <c r="M287" s="2" t="str">
         <f t="shared" si="12"/>
@@ -18503,13 +18503,13 @@
         <v>6</v>
       </c>
       <c r="J288">
-        <v>6.3733333333333331</v>
+        <v>6.3066666666666666</v>
       </c>
       <c r="K288">
-        <v>1.2966666666666666</v>
+        <v>0.62666666666666659</v>
       </c>
       <c r="L288">
-        <v>6.6033333333333326</v>
+        <v>6.6866666666666656</v>
       </c>
       <c r="M288" s="2" t="str">
         <f t="shared" ref="M288:M351" si="15">TRIM(LEFT(G288,FIND("@",G288)-1))</f>
@@ -18553,13 +18553,13 @@
         <v>5.5</v>
       </c>
       <c r="J289">
-        <v>7.5766666666666662</v>
+        <v>7.6233333333333331</v>
       </c>
       <c r="K289">
-        <v>2.0766666666666667</v>
+        <v>2.04</v>
       </c>
       <c r="L289">
-        <v>4.1033333333333326</v>
+        <v>4.1433333333333335</v>
       </c>
       <c r="M289" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18603,13 +18603,13 @@
         <v>4.05</v>
       </c>
       <c r="J290">
-        <v>1.0033333333333334</v>
+        <v>0.94333333333333336</v>
       </c>
       <c r="K290">
-        <v>6.6666666666666662E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L290">
-        <v>1.8366666666666664</v>
+        <v>1.81</v>
       </c>
       <c r="M290" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18653,13 +18653,13 @@
         <v>6.6</v>
       </c>
       <c r="J291">
-        <v>7.8633333333333333</v>
+        <v>7.9933333333333332</v>
       </c>
       <c r="K291">
-        <v>3.46</v>
+        <v>3.8999999999999995</v>
       </c>
       <c r="L291">
-        <v>7.59</v>
+        <v>7.8033333333333337</v>
       </c>
       <c r="M291" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18703,13 +18703,13 @@
         <v>6.85</v>
       </c>
       <c r="J292">
-        <v>8.25</v>
+        <v>8.163333333333334</v>
       </c>
       <c r="K292">
-        <v>4.003333333333333</v>
+        <v>3.3699999999999997</v>
       </c>
       <c r="L292">
-        <v>7.0133333333333319</v>
+        <v>7.2233333333333309</v>
       </c>
       <c r="M292" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18753,13 +18753,13 @@
         <v>7.55</v>
       </c>
       <c r="J293">
-        <v>7.0633333333333326</v>
+        <v>6.9066666666666663</v>
       </c>
       <c r="K293">
-        <v>0.85000000000000009</v>
+        <v>0.62333333333333329</v>
       </c>
       <c r="L293">
-        <v>7.14</v>
+        <v>7.293333333333333</v>
       </c>
       <c r="M293" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18803,13 +18803,13 @@
         <v>4.95</v>
       </c>
       <c r="J294">
-        <v>7.9533333333333331</v>
+        <v>7.6533333333333324</v>
       </c>
       <c r="K294">
-        <v>2.1633333333333331</v>
+        <v>1.98</v>
       </c>
       <c r="L294">
-        <v>7.336666666666666</v>
+        <v>7.3866666666666658</v>
       </c>
       <c r="M294" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18853,13 +18853,13 @@
         <v>5.5</v>
       </c>
       <c r="J295">
-        <v>8.5833333333333321</v>
+        <v>8.67</v>
       </c>
       <c r="K295">
-        <v>6.4833333333333325</v>
+        <v>7.27</v>
       </c>
       <c r="L295">
-        <v>3.8266666666666662</v>
+        <v>3.6833333333333331</v>
       </c>
       <c r="M295" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18903,13 +18903,13 @@
         <v>9.85</v>
       </c>
       <c r="J296">
-        <v>9.5399999999999991</v>
+        <v>9.3299999999999983</v>
       </c>
       <c r="K296">
-        <v>9.2366666666666664</v>
+        <v>7.9766666666666657</v>
       </c>
       <c r="L296">
-        <v>7.1066666666666674</v>
+        <v>7.12</v>
       </c>
       <c r="M296" s="2" t="str">
         <f t="shared" si="15"/>
@@ -18953,13 +18953,13 @@
         <v>7.35</v>
       </c>
       <c r="J297">
-        <v>5.5266666666666655</v>
+        <v>5.4466666666666663</v>
       </c>
       <c r="K297">
-        <v>1.1733333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L297">
-        <v>7.4933333333333332</v>
+        <v>7.5233333333333325</v>
       </c>
       <c r="M297" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19003,13 +19003,13 @@
         <v>3.15</v>
       </c>
       <c r="J298">
-        <v>7.38</v>
+        <v>7.2766666666666664</v>
       </c>
       <c r="K298">
-        <v>1.5566666666666664</v>
+        <v>2.6899999999999995</v>
       </c>
       <c r="L298">
-        <v>7.4866666666666664</v>
+        <v>7.5166666666666657</v>
       </c>
       <c r="M298" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19053,13 +19053,13 @@
         <v>10.65</v>
       </c>
       <c r="J299">
-        <v>6.1199999999999992</v>
+        <v>6.1533333333333324</v>
       </c>
       <c r="K299">
-        <v>0.52333333333333332</v>
+        <v>0.6366666666666666</v>
       </c>
       <c r="L299">
-        <v>6.4233333333333329</v>
+        <v>6.5733333333333324</v>
       </c>
       <c r="M299" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19103,13 +19103,13 @@
         <v>8.35</v>
       </c>
       <c r="J300">
-        <v>4.3233333333333333</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K300">
-        <v>0.12666666666666665</v>
+        <v>0.08</v>
       </c>
       <c r="L300">
-        <v>6.1199999999999992</v>
+        <v>6.22</v>
       </c>
       <c r="M300" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19153,13 +19153,13 @@
         <v>4.5</v>
       </c>
       <c r="J301">
-        <v>6.1133333333333333</v>
+        <v>6.0766666666666662</v>
       </c>
       <c r="K301">
-        <v>1.2066666666666668</v>
+        <v>0.95333333333333325</v>
       </c>
       <c r="L301">
-        <v>3.7399999999999998</v>
+        <v>3.5666666666666664</v>
       </c>
       <c r="M301" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19206,10 +19206,10 @@
         <v>3.3966666666666665</v>
       </c>
       <c r="K302">
-        <v>1.04</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="L302">
-        <v>4.833333333333333</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="M302" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19253,13 +19253,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J303">
-        <v>3.7633333333333332</v>
+        <v>3.6766666666666667</v>
       </c>
       <c r="K303">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="L303">
-        <v>5.3033333333333328</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="M303" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19303,13 +19303,13 @@
         <v>5.6</v>
       </c>
       <c r="J304">
-        <v>4.3066666666666666</v>
+        <v>4.22</v>
       </c>
       <c r="K304">
-        <v>0.31666666666666665</v>
+        <v>0.28666666666666668</v>
       </c>
       <c r="L304">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="M304" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19353,13 +19353,13 @@
         <v>7.95</v>
       </c>
       <c r="J305">
-        <v>7.7166666666666668</v>
+        <v>7.4499999999999993</v>
       </c>
       <c r="K305">
-        <v>4.3999999999999995</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="L305">
-        <v>7.1233333333333331</v>
+        <v>7.1166666666666663</v>
       </c>
       <c r="M305" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19403,13 +19403,13 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="J306">
-        <v>7.93</v>
+        <v>7.7866666666666653</v>
       </c>
       <c r="K306">
-        <v>3.0766666666666662</v>
+        <v>2.9233333333333329</v>
       </c>
       <c r="L306">
-        <v>8.0633333333333344</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="M306" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19453,13 +19453,13 @@
         <v>6.25</v>
       </c>
       <c r="J307">
-        <v>6.3333333333333321</v>
+        <v>5.9866666666666664</v>
       </c>
       <c r="K307">
-        <v>0.58333333333333326</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="L307">
-        <v>6.5966666666666658</v>
+        <v>6.4966666666666661</v>
       </c>
       <c r="M307" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19503,13 +19503,13 @@
         <v>6.3</v>
       </c>
       <c r="J308">
-        <v>5.0299999999999994</v>
+        <v>4.9933333333333332</v>
       </c>
       <c r="K308">
-        <v>0.64666666666666661</v>
+        <v>0.36</v>
       </c>
       <c r="L308">
-        <v>6.49</v>
+        <v>6.5066666666666677</v>
       </c>
       <c r="M308" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19553,13 +19553,13 @@
         <v>8</v>
       </c>
       <c r="J309">
-        <v>7.9399999999999995</v>
+        <v>8.0733333333333324</v>
       </c>
       <c r="K309">
-        <v>4.503333333333333</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="L309">
-        <v>3.7099999999999995</v>
+        <v>3.64</v>
       </c>
       <c r="M309" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19606,7 +19606,7 @@
         <v>3.7433333333333332</v>
       </c>
       <c r="K310">
-        <v>0.17333333333333331</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="L310">
         <v>4.4433333333333334</v>
@@ -19653,13 +19653,13 @@
         <v>6.25</v>
       </c>
       <c r="J311">
-        <v>8.3066666666666666</v>
+        <v>8.3099999999999987</v>
       </c>
       <c r="K311">
-        <v>6.4066666666666663</v>
+        <v>7.4566666666666661</v>
       </c>
       <c r="L311">
-        <v>8.0966666666666658</v>
+        <v>7.8433333333333328</v>
       </c>
       <c r="M311" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19703,13 +19703,13 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="J312">
-        <v>5.7733333333333334</v>
+        <v>6.09</v>
       </c>
       <c r="K312">
-        <v>0.37</v>
+        <v>0.39333333333333331</v>
       </c>
       <c r="L312">
-        <v>4.9066666666666663</v>
+        <v>5.27</v>
       </c>
       <c r="M312" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19753,13 +19753,13 @@
         <v>12.85</v>
       </c>
       <c r="J313">
-        <v>5.0333333333333332</v>
+        <v>4.9799999999999995</v>
       </c>
       <c r="K313">
-        <v>1.1633333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L313">
-        <v>6.5533333333333337</v>
+        <v>6.5933333333333328</v>
       </c>
       <c r="M313" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19803,13 +19803,13 @@
         <v>2.85</v>
       </c>
       <c r="J314">
-        <v>6.3466666666666658</v>
+        <v>6.7033333333333331</v>
       </c>
       <c r="K314">
-        <v>1.1233333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="L314">
-        <v>6.5966666666666658</v>
+        <v>6.6766666666666659</v>
       </c>
       <c r="M314" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19856,10 +19856,10 @@
         <v>1.4266666666666665</v>
       </c>
       <c r="K315">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="L315">
-        <v>2.7866666666666666</v>
+        <v>2.5733333333333333</v>
       </c>
       <c r="M315" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19903,13 +19903,13 @@
         <v>0.8</v>
       </c>
       <c r="J316">
-        <v>2.4233333333333329</v>
+        <v>2.4566666666666666</v>
       </c>
       <c r="K316">
-        <v>1.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="L316">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="M316" s="2" t="str">
         <f t="shared" si="15"/>
@@ -19953,13 +19953,13 @@
         <v>2.15</v>
       </c>
       <c r="J317">
-        <v>2.33</v>
+        <v>2.2433333333333332</v>
       </c>
       <c r="K317">
-        <v>3.3333333333333331E-3</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L317">
-        <v>3.13</v>
+        <v>3.0766666666666662</v>
       </c>
       <c r="M317" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20003,13 +20003,13 @@
         <v>7.8</v>
       </c>
       <c r="J318">
-        <v>3.7899999999999996</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="K318">
-        <v>5.333333333333333E-2</v>
+        <v>0.23999999999999996</v>
       </c>
       <c r="L318">
-        <v>5.4499999999999993</v>
+        <v>5.8866666666666667</v>
       </c>
       <c r="M318" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20053,13 +20053,13 @@
         <v>8.65</v>
       </c>
       <c r="J319">
-        <v>6.4166666666666661</v>
+        <v>6.7466666666666661</v>
       </c>
       <c r="K319">
-        <v>0.71333333333333326</v>
+        <v>1.77</v>
       </c>
       <c r="L319">
-        <v>7.1866666666666656</v>
+        <v>7.2466666666666661</v>
       </c>
       <c r="M319" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20103,13 +20103,13 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>1.3866666666666667</v>
+        <v>1.38</v>
       </c>
       <c r="K320">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L320">
-        <v>2.3533333333333335</v>
+        <v>2.3466666666666667</v>
       </c>
       <c r="M320" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20153,13 +20153,13 @@
         <v>3.75</v>
       </c>
       <c r="J321">
-        <v>8.456666666666667</v>
+        <v>8.3533333333333317</v>
       </c>
       <c r="K321">
-        <v>9.1466666666666665</v>
+        <v>7.77</v>
       </c>
       <c r="L321">
-        <v>7.5499999999999989</v>
+        <v>7.586666666666666</v>
       </c>
       <c r="M321" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20203,13 +20203,13 @@
         <v>0.9</v>
       </c>
       <c r="J322">
-        <v>4.7066666666666661</v>
+        <v>5.3266666666666662</v>
       </c>
       <c r="K322">
-        <v>0.33333333333333331</v>
+        <v>0.63</v>
       </c>
       <c r="L322">
-        <v>6.6333333333333329</v>
+        <v>6.8966666666666665</v>
       </c>
       <c r="M322" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20253,13 +20253,13 @@
         <v>2.7</v>
       </c>
       <c r="J323">
-        <v>1.6699999999999997</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="K323">
-        <v>6.6666666666666662E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L323">
-        <v>2.6033333333333335</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="M323" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20303,13 +20303,13 @@
         <v>5.25</v>
       </c>
       <c r="J324">
-        <v>3.1133333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="K324">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="L324">
-        <v>5.0966666666666658</v>
+        <v>4.97</v>
       </c>
       <c r="M324" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20353,13 +20353,13 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <v>2.9533333333333331</v>
+        <v>2.92</v>
       </c>
       <c r="K325">
-        <v>9.9999999999999985E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L325">
-        <v>3.6533333333333329</v>
+        <v>3.6533333333333333</v>
       </c>
       <c r="M325" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20403,13 +20403,13 @@
         <v>7.75</v>
       </c>
       <c r="J326">
-        <v>7.339999999999999</v>
+        <v>7.14</v>
       </c>
       <c r="K326">
-        <v>4.1933333333333334</v>
+        <v>2.6933333333333334</v>
       </c>
       <c r="L326">
-        <v>7.4333333333333336</v>
+        <v>7.45</v>
       </c>
       <c r="M326" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20453,13 +20453,13 @@
         <v>2.4</v>
       </c>
       <c r="J327">
-        <v>2.7066666666666666</v>
+        <v>2.63</v>
       </c>
       <c r="K327">
-        <v>3.3333333333333331E-3</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L327">
-        <v>3.92</v>
+        <v>3.9366666666666665</v>
       </c>
       <c r="M327" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20503,13 +20503,13 @@
         <v>7</v>
       </c>
       <c r="J328">
-        <v>7.8633333333333333</v>
+        <v>7.8233333333333324</v>
       </c>
       <c r="K328">
-        <v>6.2566666666666659</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="L328">
-        <v>3.3999999999999995</v>
+        <v>3.6733333333333333</v>
       </c>
       <c r="M328" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20553,13 +20553,13 @@
         <v>4.95</v>
       </c>
       <c r="J329">
-        <v>7.0266666666666655</v>
+        <v>6.9733333333333327</v>
       </c>
       <c r="K329">
-        <v>2.2299999999999995</v>
+        <v>2.4</v>
       </c>
       <c r="L329">
-        <v>5.923333333333332</v>
+        <v>5.9933333333333323</v>
       </c>
       <c r="M329" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20603,13 +20603,13 @@
         <v>0.75</v>
       </c>
       <c r="J330">
-        <v>3.5733333333333328</v>
+        <v>3.6266666666666665</v>
       </c>
       <c r="K330">
-        <v>1.6666666666666666E-2</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="L330">
-        <v>5.1933333333333325</v>
+        <v>5.33</v>
       </c>
       <c r="M330" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20653,13 +20653,13 @@
         <v>9.25</v>
       </c>
       <c r="J331">
-        <v>7.7099999999999991</v>
+        <v>7.8099999999999987</v>
       </c>
       <c r="K331">
-        <v>3.87</v>
+        <v>5.2466666666666661</v>
       </c>
       <c r="L331">
-        <v>6.7999999999999989</v>
+        <v>6.9766666666666666</v>
       </c>
       <c r="M331" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20703,13 +20703,13 @@
         <v>9</v>
       </c>
       <c r="J332">
-        <v>7.1599999999999993</v>
+        <v>7.1099999999999994</v>
       </c>
       <c r="K332">
-        <v>3.3566666666666665</v>
+        <v>3.5866666666666669</v>
       </c>
       <c r="L332">
-        <v>3.7233333333333327</v>
+        <v>3.8266666666666667</v>
       </c>
       <c r="M332" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20753,13 +20753,13 @@
         <v>3.35</v>
       </c>
       <c r="J333">
-        <v>3.7166666666666663</v>
+        <v>3.6333333333333329</v>
       </c>
       <c r="K333">
-        <v>0.21999999999999997</v>
+        <v>0.36</v>
       </c>
       <c r="L333">
-        <v>5.5366666666666671</v>
+        <v>5.8199999999999994</v>
       </c>
       <c r="M333" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20803,13 +20803,13 @@
         <v>2.75</v>
       </c>
       <c r="J334">
-        <v>3.07</v>
+        <v>3.0299999999999994</v>
       </c>
       <c r="K334">
-        <v>0</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L334">
-        <v>4.9833333333333325</v>
+        <v>5.0599999999999987</v>
       </c>
       <c r="M334" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20906,10 +20906,10 @@
         <v>1.63</v>
       </c>
       <c r="K336">
-        <v>6.6666666666666662E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L336">
-        <v>2.5633333333333335</v>
+        <v>2.5966666666666667</v>
       </c>
       <c r="M336" s="2" t="str">
         <f t="shared" si="15"/>
@@ -20956,7 +20956,7 @@
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="K337">
-        <v>0</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L337">
         <v>3.9999999999999994E-2</v>
@@ -21003,13 +21003,13 @@
         <v>0</v>
       </c>
       <c r="J338">
-        <v>1.1633333333333333</v>
+        <v>0.94666666666666666</v>
       </c>
       <c r="K338">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L338">
-        <v>1.4633333333333334</v>
+        <v>1.2466666666666666</v>
       </c>
       <c r="M338" s="2" t="str">
         <f t="shared" si="15"/>
@@ -21153,13 +21153,13 @@
         <v>0.85</v>
       </c>
       <c r="J341">
-        <v>1.1066666666666667</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="K341">
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="L341">
-        <v>2.0666666666666664</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="M341" s="2" t="str">
         <f t="shared" si="15"/>
@@ -21206,7 +21206,7 @@
         <v>2.6666666666666665E-2</v>
       </c>
       <c r="K342">
-        <v>9.9999999999999985E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L342">
         <v>2.6666666666666665E-2</v>
@@ -21453,13 +21453,13 @@
         <v>0</v>
       </c>
       <c r="J347">
-        <v>0.6333333333333333</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="K347">
-        <v>6.6666666666666662E-3</v>
+        <v>0</v>
       </c>
       <c r="L347">
-        <v>1.3333333333333333</v>
+        <v>1.2633333333333332</v>
       </c>
       <c r="M347" s="2" t="str">
         <f t="shared" si="15"/>
@@ -21503,13 +21503,13 @@
         <v>2.85</v>
       </c>
       <c r="J348">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="K348">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L348">
-        <v>2.333333333333333</v>
+        <v>2.3566666666666665</v>
       </c>
       <c r="M348" s="2" t="str">
         <f t="shared" si="15"/>
@@ -21803,13 +21803,13 @@
         <v>2.95</v>
       </c>
       <c r="J354">
-        <v>2.4233333333333333</v>
+        <v>2.63</v>
       </c>
       <c r="K354">
-        <v>0</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L354">
-        <v>3.2233333333333332</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M354" s="2" t="str">
         <f t="shared" si="18"/>
@@ -21856,7 +21856,7 @@
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="K355">
-        <v>0</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L355">
         <v>1.9999999999999997E-2</v>
@@ -22103,13 +22103,13 @@
         <v>6</v>
       </c>
       <c r="J360">
-        <v>7.0733333333333333</v>
+        <v>7.173333333333332</v>
       </c>
       <c r="K360">
-        <v>3.1633333333333331</v>
+        <v>3.4733333333333332</v>
       </c>
       <c r="L360">
-        <v>3.7466666666666666</v>
+        <v>3.6533333333333333</v>
       </c>
       <c r="M360" s="2" t="str">
         <f t="shared" si="18"/>
@@ -22153,13 +22153,13 @@
         <v>1.2</v>
       </c>
       <c r="J361">
-        <v>2.6666666666666665E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K361">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L361">
-        <v>2.6666666666666665E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M361" s="2" t="str">
         <f t="shared" si="18"/>
@@ -22403,13 +22403,13 @@
         <v>0</v>
       </c>
       <c r="J366">
-        <v>1.26</v>
+        <v>1.2166666666666666</v>
       </c>
       <c r="K366">
-        <v>1.6666666666666666E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L366">
-        <v>2.0599999999999996</v>
+        <v>1.9833333333333332</v>
       </c>
       <c r="M366" s="2" t="str">
         <f t="shared" si="18"/>
@@ -22453,13 +22453,13 @@
         <v>0</v>
       </c>
       <c r="J367">
-        <v>1.3299999999999998</v>
+        <v>1.2933333333333332</v>
       </c>
       <c r="K367">
-        <v>0</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L367">
-        <v>2.1966666666666663</v>
+        <v>2.06</v>
       </c>
       <c r="M367" s="2" t="str">
         <f t="shared" si="18"/>
@@ -22756,7 +22756,7 @@
         <v>0.71</v>
       </c>
       <c r="K373">
-        <v>1.3333333333333332E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L373">
         <v>1.3766666666666665</v>
@@ -22803,13 +22803,13 @@
         <v>2.7</v>
       </c>
       <c r="J374">
-        <v>2.0466666666666664</v>
+        <v>2.0133333333333332</v>
       </c>
       <c r="K374">
-        <v>4.3333333333333335E-2</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L374">
-        <v>3.08</v>
+        <v>3.0133333333333332</v>
       </c>
       <c r="M374" s="2" t="str">
         <f t="shared" si="18"/>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="L377">
-        <v>0.89999999999999991</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="M377" s="2" t="str">
         <f t="shared" si="18"/>
@@ -23003,13 +23003,13 @@
         <v>0</v>
       </c>
       <c r="J378">
-        <v>1.1733333333333333</v>
+        <v>1.1633333333333333</v>
       </c>
       <c r="K378">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L378">
-        <v>2.1066666666666665</v>
+        <v>2.0966666666666667</v>
       </c>
       <c r="M378" s="2" t="str">
         <f t="shared" si="18"/>
@@ -23253,13 +23253,13 @@
         <v>0.65</v>
       </c>
       <c r="J383">
-        <v>4.3666666666666663</v>
+        <v>6.6199999999999992</v>
       </c>
       <c r="K383">
-        <v>0.16999999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L383">
-        <v>5.6633333333333322</v>
+        <v>6.7833333333333332</v>
       </c>
       <c r="M383" s="2" t="str">
         <f t="shared" si="18"/>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="J384">
-        <v>1.6</v>
+        <v>1.7433333333333332</v>
       </c>
       <c r="K384">
         <v>1.3333333333333332E-2</v>
       </c>
       <c r="L384">
-        <v>3.5266666666666664</v>
+        <v>2.6433333333333331</v>
       </c>
       <c r="M384" s="2" t="str">
         <f t="shared" si="18"/>
@@ -23403,13 +23403,13 @@
         <v>0</v>
       </c>
       <c r="J386">
-        <v>9.9999999999999992E-2</v>
+        <v>0.43333333333333329</v>
       </c>
       <c r="K386">
         <v>0</v>
       </c>
       <c r="L386">
-        <v>0.29999999999999993</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="M386" s="2" t="str">
         <f t="shared" si="18"/>
@@ -23603,13 +23603,13 @@
         <v>0.95</v>
       </c>
       <c r="J390">
-        <v>1.3699999999999999</v>
+        <v>1.3366666666666664</v>
       </c>
       <c r="K390">
         <v>1.3333333333333332E-2</v>
       </c>
       <c r="L390">
-        <v>2.1033333333333331</v>
+        <v>2.17</v>
       </c>
       <c r="M390" s="2" t="str">
         <f t="shared" si="18"/>
@@ -23953,13 +23953,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J397">
-        <v>1.6233333333333331</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="K397">
-        <v>1.3333333333333332E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L397">
-        <v>3.4866666666666664</v>
+        <v>3.71</v>
       </c>
       <c r="M397" s="2" t="str">
         <f t="shared" si="18"/>
@@ -24453,13 +24453,13 @@
         <v>4.2</v>
       </c>
       <c r="J407">
-        <v>6.9433333333333325</v>
+        <v>7.14</v>
       </c>
       <c r="K407">
-        <v>2.6733333333333333</v>
+        <v>3.0933333333333333</v>
       </c>
       <c r="L407">
-        <v>6.98</v>
+        <v>6.8966666666666665</v>
       </c>
       <c r="M407" s="2" t="str">
         <f t="shared" si="18"/>
@@ -24506,10 +24506,10 @@
         <v>0.5</v>
       </c>
       <c r="K408">
-        <v>6.6666666666666662E-3</v>
+        <v>0</v>
       </c>
       <c r="L408">
-        <v>1.2333333333333334</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="M408" s="2" t="str">
         <f t="shared" si="18"/>
@@ -24756,10 +24756,10 @@
         <v>0.35666666666666663</v>
       </c>
       <c r="K413">
-        <v>0</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L413">
-        <v>0.65666666666666662</v>
+        <v>0.69</v>
       </c>
       <c r="M413" s="2" t="str">
         <f t="shared" si="18"/>
@@ -24806,7 +24806,7 @@
         <v>0.12</v>
       </c>
       <c r="K414">
-        <v>1.3333333333333332E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L414">
         <v>0.18666666666666665</v>
@@ -25406,10 +25406,10 @@
         <v>2.5866666666666664</v>
       </c>
       <c r="K426">
-        <v>1.3333333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="L426">
-        <v>3.32</v>
+        <v>4.57</v>
       </c>
       <c r="M426" s="2" t="str">
         <f t="shared" si="21"/>
@@ -25456,7 +25456,7 @@
         <v>0.17666666666666667</v>
       </c>
       <c r="K427">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L427">
         <v>0.17666666666666667</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="J430">
-        <v>1.8066666666666666</v>
+        <v>1.75</v>
       </c>
       <c r="K430">
-        <v>1.6666666666666666E-2</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="L430">
-        <v>6.2633333333333319</v>
+        <v>6.99</v>
       </c>
       <c r="M430" s="2" t="str">
         <f t="shared" si="21"/>
@@ -25953,13 +25953,13 @@
         <v>0.7</v>
       </c>
       <c r="J437">
-        <v>0.34333333333333332</v>
+        <v>0.24333333333333332</v>
       </c>
       <c r="K437">
-        <v>1.3333333333333332E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L437">
-        <v>0.64333333333333331</v>
+        <v>0.51</v>
       </c>
       <c r="M437" s="2" t="str">
         <f t="shared" si="21"/>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="L438">
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="M438" s="2" t="str">
         <f t="shared" si="21"/>
@@ -26206,10 +26206,10 @@
         <v>1.8066666666666666</v>
       </c>
       <c r="K442">
-        <v>1.3333333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="L442">
-        <v>2.6066666666666665</v>
+        <v>2.7066666666666666</v>
       </c>
       <c r="M442" s="2" t="str">
         <f t="shared" si="21"/>
@@ -26253,13 +26253,13 @@
         <v>0</v>
       </c>
       <c r="J443">
-        <v>0.18</v>
+        <v>0.20666666666666667</v>
       </c>
       <c r="K443">
         <v>0</v>
       </c>
       <c r="L443">
-        <v>0.47999999999999993</v>
+        <v>0.54</v>
       </c>
       <c r="M443" s="2" t="str">
         <f t="shared" si="21"/>
@@ -26806,10 +26806,10 @@
         <v>2.1199999999999997</v>
       </c>
       <c r="K454">
-        <v>1.9999999999999997E-2</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L454">
-        <v>3.2533333333333334</v>
+        <v>3.22</v>
       </c>
       <c r="M454" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27053,13 +27053,13 @@
         <v>0.95</v>
       </c>
       <c r="J459">
-        <v>1.29</v>
+        <v>1.2766666666666668</v>
       </c>
       <c r="K459">
-        <v>1.6666666666666666E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L459">
-        <v>2.1566666666666667</v>
+        <v>2.1766666666666667</v>
       </c>
       <c r="M459" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27259,7 +27259,7 @@
         <v>0</v>
       </c>
       <c r="L463">
-        <v>1</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="M463" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27303,13 +27303,13 @@
         <v>0.8</v>
       </c>
       <c r="J464">
-        <v>0.90666666666666662</v>
+        <v>0.91333333333333322</v>
       </c>
       <c r="K464">
-        <v>1.3333333333333332E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L464">
-        <v>1.44</v>
+        <v>1.6799999999999997</v>
       </c>
       <c r="M464" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27503,13 +27503,13 @@
         <v>1.7</v>
       </c>
       <c r="J468">
-        <v>1.6766666666666665</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="K468">
-        <v>1.6666666666666666E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L468">
-        <v>2.5100000000000002</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="M468" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="L469">
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="M469" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27606,10 +27606,10 @@
         <v>0.20333333333333331</v>
       </c>
       <c r="K470">
-        <v>9.9999999999999985E-3</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L470">
-        <v>0.70333333333333325</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="M470" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27803,13 +27803,13 @@
         <v>6.45</v>
       </c>
       <c r="J474">
-        <v>3.6133333333333333</v>
+        <v>3.7266666666666666</v>
       </c>
       <c r="K474">
-        <v>0.43333333333333335</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="L474">
-        <v>5.6133333333333333</v>
+        <v>5.6933333333333334</v>
       </c>
       <c r="M474" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27853,13 +27853,13 @@
         <v>1.6</v>
       </c>
       <c r="J475">
-        <v>2.4533333333333331</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="K475">
-        <v>1.3333333333333332E-2</v>
+        <v>3.3333333333333331E-3</v>
       </c>
       <c r="L475">
-        <v>4.3866666666666658</v>
+        <v>4.7033333333333323</v>
       </c>
       <c r="M475" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27903,13 +27903,13 @@
         <v>8.5</v>
       </c>
       <c r="J476">
-        <v>6.24</v>
+        <v>6.2866666666666662</v>
       </c>
       <c r="K476">
-        <v>1.8566666666666667</v>
+        <v>1.6300000000000001</v>
       </c>
       <c r="L476">
-        <v>3.4466666666666663</v>
+        <v>3.57</v>
       </c>
       <c r="M476" s="2" t="str">
         <f t="shared" si="21"/>
@@ -27953,13 +27953,13 @@
         <v>6.35</v>
       </c>
       <c r="J477">
-        <v>7.9499999999999993</v>
+        <v>7.8833333333333329</v>
       </c>
       <c r="K477">
-        <v>9.4333333333333318</v>
+        <v>9.9599999999999991</v>
       </c>
       <c r="L477">
-        <v>7.3166666666666664</v>
+        <v>7.3766666666666669</v>
       </c>
       <c r="M477" s="2" t="str">
         <f t="shared" si="21"/>
@@ -28003,13 +28003,13 @@
         <v>7.45</v>
       </c>
       <c r="J478">
-        <v>5.6099999999999994</v>
+        <v>5.59</v>
       </c>
       <c r="K478">
-        <v>0.89999999999999991</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="L478">
-        <v>6.543333333333333</v>
+        <v>6.6633333333333322</v>
       </c>
       <c r="M478" s="2" t="str">
         <f t="shared" si="21"/>
@@ -28053,13 +28053,13 @@
         <v>7.5</v>
       </c>
       <c r="J479">
-        <v>8.4333333333333336</v>
+        <v>8.456666666666667</v>
       </c>
       <c r="K479">
-        <v>12.266666666666666</v>
+        <v>14.726666666666667</v>
       </c>
       <c r="L479">
-        <v>3.7499999999999996</v>
+        <v>3.96</v>
       </c>
       <c r="M479" s="2" t="str">
         <f t="shared" si="21"/>
@@ -28103,13 +28103,13 @@
         <v>4.8</v>
       </c>
       <c r="J480">
-        <v>6.1233333333333331</v>
+        <v>5.9933333333333341</v>
       </c>
       <c r="K480">
-        <v>0.52999999999999992</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L480">
-        <v>6.043333333333333</v>
+        <v>6.2199999999999989</v>
       </c>
       <c r="M480" s="2" t="str">
         <f t="shared" ref="M480:M543" si="24">TRIM(LEFT(G480,FIND("@",G480)-1))</f>
@@ -28153,13 +28153,13 @@
         <v>3.5</v>
       </c>
       <c r="J481">
-        <v>5.3266666666666662</v>
+        <v>5.3166666666666664</v>
       </c>
       <c r="K481">
-        <v>1.33</v>
+        <v>1.0366666666666666</v>
       </c>
       <c r="L481">
-        <v>3.7299999999999995</v>
+        <v>3.7699999999999996</v>
       </c>
       <c r="M481" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28203,13 +28203,13 @@
         <v>10</v>
       </c>
       <c r="J482">
-        <v>7.6933333333333334</v>
+        <v>7.7099999999999991</v>
       </c>
       <c r="K482">
-        <v>11.879999999999999</v>
+        <v>10.886666666666667</v>
       </c>
       <c r="L482">
-        <v>3.6566666666666667</v>
+        <v>3.9766666666666666</v>
       </c>
       <c r="M482" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28253,13 +28253,13 @@
         <v>3.8</v>
       </c>
       <c r="J483">
-        <v>6.4599999999999991</v>
+        <v>5.6733333333333329</v>
       </c>
       <c r="K483">
-        <v>0.18333333333333332</v>
+        <v>1.06</v>
       </c>
       <c r="L483">
-        <v>6.1066666666666674</v>
+        <v>5.9966666666666661</v>
       </c>
       <c r="M483" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28303,13 +28303,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J484">
-        <v>1.2666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K484">
-        <v>9.9999999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="L484">
-        <v>1.2666666666666666</v>
+        <v>0</v>
       </c>
       <c r="M484" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28353,13 +28353,13 @@
         <v>0</v>
       </c>
       <c r="J485">
-        <v>0.92666666666666653</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="K485">
         <v>0</v>
       </c>
       <c r="L485">
-        <v>1.7933333333333332</v>
+        <v>1.7200000000000002</v>
       </c>
       <c r="M485" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28403,13 +28403,13 @@
         <v>4.25</v>
       </c>
       <c r="J486">
-        <v>2.1866666666666665</v>
+        <v>2.1833333333333331</v>
       </c>
       <c r="K486">
-        <v>1.9999999999999997E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L486">
-        <v>3.9833333333333334</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="M486" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28453,13 +28453,13 @@
         <v>6.5</v>
       </c>
       <c r="J487">
-        <v>4.9866666666666664</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="K487">
-        <v>1.5466666666666666</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="L487">
-        <v>3.6566666666666663</v>
+        <v>3.59</v>
       </c>
       <c r="M487" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28553,13 +28553,13 @@
         <v>6.4</v>
       </c>
       <c r="J489">
-        <v>5.0599999999999996</v>
+        <v>5.2266666666666666</v>
       </c>
       <c r="K489">
-        <v>1.2233333333333332</v>
+        <v>1.0566666666666666</v>
       </c>
       <c r="L489">
-        <v>6.0533333333333337</v>
+        <v>6.3433333333333337</v>
       </c>
       <c r="M489" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28603,13 +28603,13 @@
         <v>2.5</v>
       </c>
       <c r="J490">
-        <v>5.7633333333333336</v>
+        <v>5.7433333333333332</v>
       </c>
       <c r="K490">
-        <v>2.8966666666666665</v>
+        <v>3.3833333333333329</v>
       </c>
       <c r="L490">
-        <v>4.0333333333333332</v>
+        <v>4.09</v>
       </c>
       <c r="M490" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28653,13 +28653,13 @@
         <v>3.4</v>
       </c>
       <c r="J491">
-        <v>3.4199999999999995</v>
+        <v>3.9266666666666663</v>
       </c>
       <c r="K491">
-        <v>9.9999999999999992E-2</v>
+        <v>0.14333333333333334</v>
       </c>
       <c r="L491">
-        <v>4.67</v>
+        <v>5.17</v>
       </c>
       <c r="M491" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28703,13 +28703,13 @@
         <v>3.55</v>
       </c>
       <c r="J492">
-        <v>1.0566666666666666</v>
+        <v>0.92333333333333334</v>
       </c>
       <c r="K492">
-        <v>1.9999999999999997E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L492">
-        <v>1.7566666666666664</v>
+        <v>1.5566666666666666</v>
       </c>
       <c r="M492" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28753,13 +28753,13 @@
         <v>4.75</v>
       </c>
       <c r="J493">
-        <v>3.4266666666666667</v>
+        <v>3.3499999999999996</v>
       </c>
       <c r="K493">
-        <v>0.21999999999999997</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L493">
-        <v>4.3166666666666664</v>
+        <v>4.543333333333333</v>
       </c>
       <c r="M493" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28803,13 +28803,13 @@
         <v>5.5</v>
       </c>
       <c r="J494">
-        <v>6.0133333333333336</v>
+        <v>6.0033333333333339</v>
       </c>
       <c r="K494">
-        <v>2.7433333333333332</v>
+        <v>2.6533333333333333</v>
       </c>
       <c r="L494">
-        <v>3.6333333333333333</v>
+        <v>3.5666666666666664</v>
       </c>
       <c r="M494" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28853,13 +28853,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J495">
-        <v>0.74333333333333318</v>
+        <v>0.75333333333333319</v>
       </c>
       <c r="K495">
         <v>0</v>
       </c>
       <c r="L495">
-        <v>1.4766666666666666</v>
+        <v>1.5533333333333332</v>
       </c>
       <c r="M495" s="2" t="str">
         <f t="shared" si="24"/>
@@ -28906,10 +28906,10 @@
         <v>0.88666666666666671</v>
       </c>
       <c r="K496">
-        <v>6.6666666666666662E-3</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L496">
-        <v>1.7533333333333334</v>
+        <v>1.8533333333333333</v>
       </c>
       <c r="M496" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29103,13 +29103,13 @@
         <v>1.25</v>
       </c>
       <c r="J500">
-        <v>2.8666666666666663</v>
+        <v>2.6633333333333331</v>
       </c>
       <c r="K500">
-        <v>1.3333333333333332E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L500">
-        <v>4.8933333333333335</v>
+        <v>4.3733333333333331</v>
       </c>
       <c r="M500" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29203,13 +29203,13 @@
         <v>6.9</v>
       </c>
       <c r="J502">
-        <v>1.4333333333333331</v>
+        <v>1.4566666666666666</v>
       </c>
       <c r="K502">
-        <v>3.3333333333333333E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L502">
-        <v>2.1333333333333333</v>
+        <v>2.1233333333333335</v>
       </c>
       <c r="M502" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29303,13 +29303,13 @@
         <v>1.7</v>
       </c>
       <c r="J504">
-        <v>1.0733333333333333</v>
+        <v>1.0366666666666666</v>
       </c>
       <c r="K504">
-        <v>6.6666666666666662E-3</v>
+        <v>0</v>
       </c>
       <c r="L504">
-        <v>1.9066666666666665</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="M504" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29409,7 +29409,7 @@
         <v>0</v>
       </c>
       <c r="L506">
-        <v>1.3399999999999999</v>
+        <v>1.3733333333333333</v>
       </c>
       <c r="M506" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29456,10 +29456,10 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="K507">
-        <v>1.9999999999999997E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L507">
-        <v>0.8666666666666667</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M507" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29603,13 +29603,13 @@
         <v>1.85</v>
       </c>
       <c r="J510">
-        <v>1.5633333333333335</v>
+        <v>1.5933333333333333</v>
       </c>
       <c r="K510">
-        <v>1.9999999999999997E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L510">
-        <v>2.4966666666666666</v>
+        <v>2.4933333333333332</v>
       </c>
       <c r="M510" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29653,13 +29653,13 @@
         <v>0</v>
       </c>
       <c r="J511">
-        <v>0.27333333333333332</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="K511">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L511">
-        <v>0.74</v>
+        <v>0.71333333333333337</v>
       </c>
       <c r="M511" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29803,13 +29803,13 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="J514">
-        <v>4.0733333333333333</v>
+        <v>3.7733333333333334</v>
       </c>
       <c r="K514">
-        <v>1.1266666666666665</v>
+        <v>0.58666666666666667</v>
       </c>
       <c r="L514">
-        <v>5.2566666666666659</v>
+        <v>5.1899999999999995</v>
       </c>
       <c r="M514" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29853,13 +29853,13 @@
         <v>0</v>
       </c>
       <c r="J515">
-        <v>0.62999999999999989</v>
+        <v>0.6366666666666666</v>
       </c>
       <c r="K515">
-        <v>9.9999999999999985E-3</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L515">
-        <v>1.1633333333333333</v>
+        <v>1.27</v>
       </c>
       <c r="M515" s="2" t="str">
         <f t="shared" si="24"/>
@@ -29903,13 +29903,13 @@
         <v>0</v>
       </c>
       <c r="J516">
-        <v>1.3333333333333332E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K516">
+        <v>6.6666666666666662E-3</v>
+      </c>
+      <c r="L516">
         <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="L516">
-        <v>1.3333333333333332E-2</v>
       </c>
       <c r="M516" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30106,10 +30106,10 @@
         <v>1.2333333333333332</v>
       </c>
       <c r="K520">
-        <v>3.3333333333333331E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L520">
-        <v>2.0333333333333332</v>
+        <v>2.1</v>
       </c>
       <c r="M520" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30153,13 +30153,13 @@
         <v>0</v>
       </c>
       <c r="J521">
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="K521">
         <v>0</v>
       </c>
       <c r="L521">
-        <v>1</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M521" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30206,7 +30206,7 @@
         <v>0.19666666666666666</v>
       </c>
       <c r="K522">
-        <v>1.6666666666666666E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L522">
         <v>0.32999999999999996</v>
@@ -30353,13 +30353,13 @@
         <v>0</v>
       </c>
       <c r="J525">
-        <v>1.4166666666666665</v>
+        <v>1.42</v>
       </c>
       <c r="K525">
-        <v>1.9999999999999997E-2</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L525">
-        <v>2.2833333333333332</v>
+        <v>2.3533333333333331</v>
       </c>
       <c r="M525" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30553,13 +30553,13 @@
         <v>0</v>
       </c>
       <c r="J529">
-        <v>1.1399999999999999</v>
+        <v>1.1133333333333333</v>
       </c>
       <c r="K529">
-        <v>6.6666666666666662E-3</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L529">
-        <v>1.9733333333333332</v>
+        <v>2.0133333333333332</v>
       </c>
       <c r="M529" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30603,13 +30603,13 @@
         <v>0</v>
       </c>
       <c r="J530">
-        <v>0.65333333333333332</v>
+        <v>0.66</v>
       </c>
       <c r="K530">
-        <v>0</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L530">
-        <v>1.3866666666666667</v>
+        <v>1.4266666666666665</v>
       </c>
       <c r="M530" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30756,10 +30756,10 @@
         <v>0.47666666666666668</v>
       </c>
       <c r="K533">
-        <v>1.9999999999999997E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L533">
-        <v>1.0766666666666667</v>
+        <v>1.0433333333333334</v>
       </c>
       <c r="M533" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30803,13 +30803,13 @@
         <v>2.35</v>
       </c>
       <c r="J534">
-        <v>1.1966666666666668</v>
+        <v>1.2166666666666668</v>
       </c>
       <c r="K534">
-        <v>6.6666666666666662E-3</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L534">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="M534" s="2" t="str">
         <f t="shared" si="24"/>
@@ -30953,13 +30953,13 @@
         <v>3.5</v>
       </c>
       <c r="J537">
-        <v>5.3333333333333339</v>
+        <v>5.3633333333333333</v>
       </c>
       <c r="K537">
-        <v>3.3566666666666665</v>
+        <v>2.2233333333333336</v>
       </c>
       <c r="L537">
-        <v>3.8833333333333329</v>
+        <v>3.7666666666666657</v>
       </c>
       <c r="M537" s="2" t="str">
         <f t="shared" si="24"/>
@@ -31006,7 +31006,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="K538">
-        <v>6.6666666666666662E-3</v>
+        <v>1.3333333333333332E-2</v>
       </c>
       <c r="L538">
         <v>3.3333333333333333E-2</v>
@@ -31253,13 +31253,13 @@
         <v>0</v>
       </c>
       <c r="J543">
-        <v>0.90333333333333332</v>
+        <v>0.92666666666666653</v>
       </c>
       <c r="K543">
-        <v>6.6666666666666662E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L543">
-        <v>1.5366666666666666</v>
+        <v>1.5266666666666666</v>
       </c>
       <c r="M543" s="2" t="str">
         <f t="shared" si="24"/>
@@ -31309,7 +31309,7 @@
         <v>0</v>
       </c>
       <c r="L544">
-        <v>1.0333333333333332</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="M544" s="2" t="str">
         <f t="shared" ref="M544:M590" si="27">TRIM(LEFT(G544,FIND("@",G544)-1))</f>
@@ -31453,13 +31453,13 @@
         <v>1.5</v>
       </c>
       <c r="J547">
-        <v>5.1466666666666665</v>
+        <v>5.17</v>
       </c>
       <c r="K547">
-        <v>1.6999999999999997</v>
+        <v>2.56</v>
       </c>
       <c r="L547">
-        <v>3.8766666666666665</v>
+        <v>3.9966666666666661</v>
       </c>
       <c r="M547" s="2" t="str">
         <f t="shared" si="27"/>
@@ -31503,13 +31503,13 @@
         <v>0</v>
       </c>
       <c r="J548">
-        <v>0.4466666666666666</v>
+        <v>0.47333333333333327</v>
       </c>
       <c r="K548">
-        <v>1.6666666666666666E-2</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L548">
-        <v>0.81333333333333324</v>
+        <v>0.87333333333333318</v>
       </c>
       <c r="M548" s="2" t="str">
         <f t="shared" si="27"/>
@@ -31553,13 +31553,13 @@
         <v>1.7</v>
       </c>
       <c r="J549">
-        <v>1.4866666666666666</v>
+        <v>1.5066666666666666</v>
       </c>
       <c r="K549">
-        <v>1.9999999999999997E-2</v>
+        <v>3.3333333333333331E-3</v>
       </c>
       <c r="L549">
-        <v>2.4533333333333331</v>
+        <v>2.5066666666666668</v>
       </c>
       <c r="M549" s="2" t="str">
         <f t="shared" si="27"/>
@@ -31703,13 +31703,13 @@
         <v>4.75</v>
       </c>
       <c r="J552">
-        <v>3.2833333333333332</v>
+        <v>3.5</v>
       </c>
       <c r="K552">
-        <v>1.9999999999999997E-2</v>
+        <v>0.38</v>
       </c>
       <c r="L552">
-        <v>4.0166666666666666</v>
+        <v>5.3833333333333329</v>
       </c>
       <c r="M552" s="2" t="str">
         <f t="shared" si="27"/>
@@ -31756,7 +31756,7 @@
         <v>0.32</v>
       </c>
       <c r="K553">
-        <v>1.3333333333333332E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L553">
         <v>0.78666666666666663</v>
@@ -31906,10 +31906,10 @@
         <v>0.42333333333333328</v>
       </c>
       <c r="K556">
-        <v>1.6666666666666666E-2</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="L556">
-        <v>0.82333333333333325</v>
+        <v>0.85666666666666658</v>
       </c>
       <c r="M556" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32003,13 +32003,13 @@
         <v>0</v>
       </c>
       <c r="J558">
-        <v>1.7766666666666664</v>
+        <v>1.6766666666666663</v>
       </c>
       <c r="K558">
-        <v>9.9999999999999985E-3</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="L558">
-        <v>2.5099999999999998</v>
+        <v>2.41</v>
       </c>
       <c r="M558" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32056,10 +32056,10 @@
         <v>0.52666666666666662</v>
       </c>
       <c r="K559">
-        <v>1.3333333333333332E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="L559">
-        <v>1.0266666666666666</v>
+        <v>1.0599999999999998</v>
       </c>
       <c r="M559" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32203,13 +32203,13 @@
         <v>0</v>
       </c>
       <c r="J562">
-        <v>0.64999999999999991</v>
+        <v>0.6366666666666666</v>
       </c>
       <c r="K562">
-        <v>1.6666666666666666E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L562">
-        <v>1.25</v>
+        <v>1.2366666666666666</v>
       </c>
       <c r="M562" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32553,13 +32553,13 @@
         <v>3.95</v>
       </c>
       <c r="J569">
-        <v>4.1766666666666667</v>
+        <v>4.66</v>
       </c>
       <c r="K569">
-        <v>0.27</v>
+        <v>0.59</v>
       </c>
       <c r="L569">
-        <v>5.1633333333333322</v>
+        <v>5.5366666666666671</v>
       </c>
       <c r="M569" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32653,13 +32653,13 @@
         <v>0</v>
       </c>
       <c r="J571">
-        <v>1.1599999999999999</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="K571">
-        <v>1.9999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="L571">
-        <v>1.9599999999999995</v>
+        <v>1.9</v>
       </c>
       <c r="M571" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32703,13 +32703,13 @@
         <v>0.6</v>
       </c>
       <c r="J572">
-        <v>0.74</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="K572">
-        <v>6.6666666666666662E-3</v>
+        <v>0</v>
       </c>
       <c r="L572">
-        <v>1.4733333333333332</v>
+        <v>1.5</v>
       </c>
       <c r="M572" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32803,13 +32803,13 @@
         <v>0</v>
       </c>
       <c r="J574">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="K574">
-        <v>9.9999999999999985E-3</v>
+        <v>0</v>
       </c>
       <c r="L574">
-        <v>2.8699999999999997</v>
+        <v>2.88</v>
       </c>
       <c r="M574" s="2" t="str">
         <f t="shared" si="27"/>
@@ -32953,13 +32953,13 @@
         <v>0</v>
       </c>
       <c r="J577">
-        <v>0.52999999999999992</v>
+        <v>0.52666666666666662</v>
       </c>
       <c r="K577">
-        <v>1.9999999999999997E-2</v>
+        <v>6.6666666666666662E-3</v>
       </c>
       <c r="L577">
-        <v>1.03</v>
+        <v>1.0933333333333333</v>
       </c>
       <c r="M577" s="2" t="str">
         <f t="shared" si="27"/>
@@ -33303,13 +33303,13 @@
         <v>0</v>
       </c>
       <c r="J584">
-        <v>0.43666666666666665</v>
+        <v>0.41999999999999993</v>
       </c>
       <c r="K584">
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L584">
-        <v>0.73666666666666658</v>
+        <v>0.68666666666666654</v>
       </c>
       <c r="M584" s="2" t="str">
         <f t="shared" si="27"/>
@@ -33453,13 +33453,13 @@
         <v>10</v>
       </c>
       <c r="J587">
-        <v>5.7999999999999989</v>
+        <v>5.8066666666666666</v>
       </c>
       <c r="K587">
-        <v>4.3533333333333326</v>
+        <v>5.15</v>
       </c>
       <c r="L587">
-        <v>4.0633333333333326</v>
+        <v>4.0233333333333334</v>
       </c>
       <c r="M587" s="2" t="str">
         <f t="shared" si="27"/>
@@ -33503,13 +33503,13 @@
         <v>10.5</v>
       </c>
       <c r="J588">
-        <v>6.4066666666666663</v>
+        <v>6.4033333333333324</v>
       </c>
       <c r="K588">
-        <v>6.1733333333333329</v>
+        <v>6.9099999999999984</v>
       </c>
       <c r="L588">
-        <v>3.8633333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="M588" s="2" t="str">
         <f t="shared" si="27"/>
@@ -33553,13 +33553,13 @@
         <v>11.5</v>
       </c>
       <c r="J589">
-        <v>4.92</v>
+        <v>4.9366666666666665</v>
       </c>
       <c r="K589">
-        <v>7.6066666666666665</v>
+        <v>5.9766666666666657</v>
       </c>
       <c r="L589">
-        <v>3.9599999999999995</v>
+        <v>4.18</v>
       </c>
       <c r="M589" s="2" t="str">
         <f t="shared" si="27"/>
@@ -33603,13 +33603,13 @@
         <v>1</v>
       </c>
       <c r="J590">
-        <v>3.856666666666666</v>
+        <v>3.8799999999999994</v>
       </c>
       <c r="K590">
-        <v>1.6933333333333331</v>
+        <v>1.4366666666666665</v>
       </c>
       <c r="L590">
-        <v>3.936666666666667</v>
+        <v>3.8566666666666665</v>
       </c>
       <c r="M590" s="2" t="str">
         <f t="shared" si="27"/>
